--- a/data/夏令营资料库.xlsx
+++ b/data/夏令营资料库.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuewe\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3DA5AB-C2D3-40F3-8B0A-9E2F68A89245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>顺序</t>
   </si>
   <si>
-    <t>组别</t>
-  </si>
-  <si>
     <t>姓名（中文）</t>
   </si>
   <si>
@@ -49,15 +52,6 @@
     <t>房间号</t>
   </si>
   <si>
-    <t>1组</t>
-  </si>
-  <si>
-    <t>2组</t>
-  </si>
-  <si>
-    <t>3组</t>
-  </si>
-  <si>
     <t>詹子瑶</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>Santa Coloma</t>
   </si>
   <si>
-    <t>东区堂</t>
-  </si>
-  <si>
     <t>Santa Coloma 堂</t>
   </si>
   <si>
@@ -209,17 +200,29 @@
   </si>
   <si>
     <t>辅导</t>
+  </si>
+  <si>
+    <t>队别</t>
+  </si>
+  <si>
+    <t>1队</t>
+  </si>
+  <si>
+    <t>2队</t>
+  </si>
+  <si>
+    <t>3队</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -227,8 +230,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -274,17 +284,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,7 +340,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -356,6 +374,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -390,9 +409,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,434 +585,437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>688578390</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K2">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>688166676</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K3">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>691593616</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K4">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>691593611</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K5">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>643768698</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K6">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H7">
         <v>624200934</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K7">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H8">
         <v>640335933</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K8">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H9">
         <v>653888690</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K9">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>692238357</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K10">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>661199252</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K11">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12">
         <v>621023351</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K12">
         <v>106</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/夏令营资料库.xlsx
+++ b/data/夏令营资料库.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuewe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuewe\Downloads\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7112271F-99FB-46C1-B9C9-27BD988A82A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A62641-2FA5-44D5-9EEC-90FFFD99BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4136,22 +4136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>同工2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同工3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同工4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同工5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4队</t>
   </si>
   <si>
@@ -4241,6 +4225,22 @@
   </si>
   <si>
     <t>东区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santa Coloma 同工队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东区同工队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南区同工队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Badalona 同工队</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4626,8 +4626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I418" sqref="I1:I418"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="M400" sqref="M400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5939,7 +5939,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C38" t="s">
         <v>153</v>
@@ -5974,7 +5974,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C39" t="s">
         <v>157</v>
@@ -6009,7 +6009,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C40" t="s">
         <v>160</v>
@@ -6044,7 +6044,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C41" t="s">
         <v>163</v>
@@ -6079,7 +6079,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C42" t="s">
         <v>166</v>
@@ -6114,7 +6114,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C43" t="s">
         <v>168</v>
@@ -6149,7 +6149,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C44" t="s">
         <v>171</v>
@@ -6184,7 +6184,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C45" t="s">
         <v>174</v>
@@ -6219,7 +6219,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C46" t="s">
         <v>177</v>
@@ -6254,7 +6254,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C47" t="s">
         <v>180</v>
@@ -6289,7 +6289,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C48" t="s">
         <v>183</v>
@@ -6324,7 +6324,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C49" t="s">
         <v>186</v>
@@ -6359,7 +6359,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C50" t="s">
         <v>190</v>
@@ -6394,7 +6394,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C51" t="s">
         <v>194</v>
@@ -6429,7 +6429,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C52" t="s">
         <v>1317</v>
@@ -6464,7 +6464,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C53" t="s">
         <v>199</v>
@@ -6499,7 +6499,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C54" t="s">
         <v>202</v>
@@ -6534,7 +6534,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C55" t="s">
         <v>205</v>
@@ -6569,7 +6569,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C56" t="s">
         <v>208</v>
@@ -6604,7 +6604,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C57" t="s">
         <v>211</v>
@@ -6639,7 +6639,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C58" t="s">
         <v>214</v>
@@ -6674,7 +6674,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C59" t="s">
         <v>217</v>
@@ -6709,7 +6709,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C60" t="s">
         <v>220</v>
@@ -6744,7 +6744,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C61" t="s">
         <v>223</v>
@@ -6779,7 +6779,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C62" t="s">
         <v>226</v>
@@ -6814,7 +6814,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C63" t="s">
         <v>229</v>
@@ -6849,7 +6849,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C64" t="s">
         <v>233</v>
@@ -6884,7 +6884,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C65" t="s">
         <v>236</v>
@@ -6919,7 +6919,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C66" t="s">
         <v>239</v>
@@ -6954,7 +6954,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C67" t="s">
         <v>242</v>
@@ -6989,7 +6989,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C68" t="s">
         <v>245</v>
@@ -7024,7 +7024,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C69" t="s">
         <v>248</v>
@@ -7059,7 +7059,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C70" t="s">
         <v>251</v>
@@ -7094,7 +7094,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C71" t="s">
         <v>254</v>
@@ -7129,7 +7129,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C72" t="s">
         <v>257</v>
@@ -7164,7 +7164,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C73" t="s">
         <v>260</v>
@@ -7199,7 +7199,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C74" t="s">
         <v>263</v>
@@ -7234,7 +7234,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C75" t="s">
         <v>265</v>
@@ -7269,7 +7269,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C76" t="s">
         <v>268</v>
@@ -7304,7 +7304,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C77" t="s">
         <v>271</v>
@@ -7339,7 +7339,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C78" t="s">
         <v>274</v>
@@ -7374,7 +7374,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C79" t="s">
         <v>277</v>
@@ -7409,7 +7409,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C80" t="s">
         <v>280</v>
@@ -7444,7 +7444,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C81" t="s">
         <v>283</v>
@@ -7476,7 +7476,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C82" t="s">
         <v>286</v>
@@ -7511,7 +7511,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C83" t="s">
         <v>289</v>
@@ -7546,7 +7546,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C84" t="s">
         <v>292</v>
@@ -7581,7 +7581,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C85" t="s">
         <v>295</v>
@@ -7616,7 +7616,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C86" t="s">
         <v>298</v>
@@ -7651,7 +7651,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C87" t="s">
         <v>302</v>
@@ -7686,7 +7686,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C88" t="s">
         <v>305</v>
@@ -7721,7 +7721,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C89" t="s">
         <v>308</v>
@@ -7756,7 +7756,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C90" t="s">
         <v>311</v>
@@ -7791,7 +7791,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C91" t="s">
         <v>314</v>
@@ -7826,7 +7826,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C92" t="s">
         <v>317</v>
@@ -7861,7 +7861,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C93" t="s">
         <v>320</v>
@@ -7896,7 +7896,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C94" t="s">
         <v>323</v>
@@ -7931,7 +7931,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>326</v>
@@ -7966,7 +7966,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C96" t="s">
         <v>328</v>
@@ -8001,7 +8001,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C97" t="s">
         <v>331</v>
@@ -8036,7 +8036,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C98" t="s">
         <v>334</v>
@@ -8071,7 +8071,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C99" t="s">
         <v>338</v>
@@ -8106,7 +8106,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C100" t="s">
         <v>342</v>
@@ -8141,7 +8141,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C101" t="s">
         <v>345</v>
@@ -8176,7 +8176,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C102" t="s">
         <v>348</v>
@@ -8211,7 +8211,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C103" t="s">
         <v>351</v>
@@ -8246,7 +8246,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C104" t="s">
         <v>354</v>
@@ -8281,7 +8281,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C105" t="s">
         <v>357</v>
@@ -8316,7 +8316,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C106" t="s">
         <v>360</v>
@@ -8351,7 +8351,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C107" t="s">
         <v>363</v>
@@ -8386,7 +8386,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C108" t="s">
         <v>366</v>
@@ -8421,7 +8421,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C109" t="s">
         <v>369</v>
@@ -8456,7 +8456,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C110" t="s">
         <v>372</v>
@@ -8491,7 +8491,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C111" t="s">
         <v>375</v>
@@ -8526,7 +8526,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C112" t="s">
         <v>378</v>
@@ -8561,7 +8561,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C113" t="s">
         <v>381</v>
@@ -8596,7 +8596,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C114" t="s">
         <v>384</v>
@@ -8631,7 +8631,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C115" t="s">
         <v>387</v>
@@ -8666,7 +8666,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C116" t="s">
         <v>390</v>
@@ -8701,7 +8701,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C117" t="s">
         <v>393</v>
@@ -8736,7 +8736,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C118" t="s">
         <v>396</v>
@@ -8771,7 +8771,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C119" t="s">
         <v>399</v>
@@ -8806,7 +8806,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C120" t="s">
         <v>402</v>
@@ -8841,7 +8841,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C121" t="s">
         <v>405</v>
@@ -8876,7 +8876,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C122" t="s">
         <v>408</v>
@@ -8897,7 +8897,7 @@
         <v>3318380089</v>
       </c>
       <c r="I122" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="J122" t="s">
         <v>1361</v>
@@ -8911,7 +8911,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C123" t="s">
         <v>411</v>
@@ -8946,7 +8946,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C124" t="s">
         <v>414</v>
@@ -8981,7 +8981,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C125" t="s">
         <v>417</v>
@@ -9016,7 +9016,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C126" t="s">
         <v>1323</v>
@@ -9051,7 +9051,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C127" t="s">
         <v>421</v>
@@ -9086,7 +9086,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C128" t="s">
         <v>425</v>
@@ -9121,7 +9121,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C129" t="s">
         <v>428</v>
@@ -9156,7 +9156,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C130" t="s">
         <v>431</v>
@@ -9191,7 +9191,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C131" t="s">
         <v>434</v>
@@ -9226,7 +9226,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C132" t="s">
         <v>437</v>
@@ -9261,7 +9261,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>440</v>
@@ -9296,7 +9296,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C134" t="s">
         <v>443</v>
@@ -9331,7 +9331,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C135" t="s">
         <v>446</v>
@@ -9366,7 +9366,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C136" t="s">
         <v>449</v>
@@ -9401,7 +9401,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C137" t="s">
         <v>452</v>
@@ -9436,7 +9436,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C138" t="s">
         <v>455</v>
@@ -9471,7 +9471,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C139" t="s">
         <v>458</v>
@@ -9506,7 +9506,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C140" t="s">
         <v>461</v>
@@ -9541,7 +9541,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C141" t="s">
         <v>464</v>
@@ -9576,7 +9576,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C142" t="s">
         <v>1325</v>
@@ -9611,7 +9611,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C143" t="s">
         <v>468</v>
@@ -9646,7 +9646,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C144" t="s">
         <v>471</v>
@@ -9681,7 +9681,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C145" t="s">
         <v>474</v>
@@ -9716,7 +9716,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C146" t="s">
         <v>477</v>
@@ -9751,7 +9751,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C147" t="s">
         <v>481</v>
@@ -9786,7 +9786,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C148" t="s">
         <v>485</v>
@@ -9821,7 +9821,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C149" t="s">
         <v>488</v>
@@ -9856,7 +9856,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C150" t="s">
         <v>491</v>
@@ -9891,7 +9891,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C151" t="s">
         <v>494</v>
@@ -9926,7 +9926,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
@@ -9961,7 +9961,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C153" t="s">
         <v>497</v>
@@ -9996,7 +9996,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C154" t="s">
         <v>500</v>
@@ -10031,7 +10031,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C155" t="s">
         <v>503</v>
@@ -10066,7 +10066,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C156" t="s">
         <v>506</v>
@@ -10101,7 +10101,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C157" t="s">
         <v>509</v>
@@ -10136,7 +10136,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C158" t="s">
         <v>512</v>
@@ -10171,7 +10171,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C159" t="s">
         <v>516</v>
@@ -10206,7 +10206,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C160" t="s">
         <v>519</v>
@@ -10241,7 +10241,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C161" t="s">
         <v>522</v>
@@ -10276,7 +10276,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C162" t="s">
         <v>525</v>
@@ -10311,7 +10311,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C163" t="s">
         <v>528</v>
@@ -10346,7 +10346,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C164" t="s">
         <v>531</v>
@@ -10381,7 +10381,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C165" t="s">
         <v>534</v>
@@ -10416,7 +10416,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C166" t="s">
         <v>537</v>
@@ -10451,7 +10451,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C167" t="s">
         <v>540</v>
@@ -10486,7 +10486,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C168" t="s">
         <v>543</v>
@@ -10521,7 +10521,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C169" t="s">
         <v>546</v>
@@ -10556,7 +10556,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C170" t="s">
         <v>549</v>
@@ -10591,7 +10591,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C171" t="s">
         <v>553</v>
@@ -10609,7 +10609,7 @@
         <v>1996</v>
       </c>
       <c r="I171" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="J171" t="s">
         <v>1361</v>
@@ -10623,7 +10623,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C172" t="s">
         <v>556</v>
@@ -10658,7 +10658,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C173" t="s">
         <v>559</v>
@@ -10693,7 +10693,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C174" t="s">
         <v>1328</v>
@@ -10728,7 +10728,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C175" t="s">
         <v>564</v>
@@ -10763,7 +10763,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C176" t="s">
         <v>567</v>
@@ -10798,7 +10798,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C177" t="s">
         <v>570</v>
@@ -10833,7 +10833,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C178" t="s">
         <v>573</v>
@@ -10868,7 +10868,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C179" t="s">
         <v>576</v>
@@ -10903,7 +10903,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C180" t="s">
         <v>1329</v>
@@ -10938,7 +10938,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C181" t="s">
         <v>581</v>
@@ -10973,7 +10973,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C182" t="s">
         <v>584</v>
@@ -11008,7 +11008,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C183" t="s">
         <v>587</v>
@@ -11043,7 +11043,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C184" t="s">
         <v>590</v>
@@ -11078,7 +11078,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C185" t="s">
         <v>593</v>
@@ -11113,7 +11113,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C186" t="s">
         <v>596</v>
@@ -11148,7 +11148,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C187" t="s">
         <v>599</v>
@@ -11183,7 +11183,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C188" t="s">
         <v>602</v>
@@ -11218,7 +11218,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C189" t="s">
         <v>605</v>
@@ -11253,7 +11253,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C190" t="s">
         <v>608</v>
@@ -11288,7 +11288,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C191" t="s">
         <v>611</v>
@@ -11323,7 +11323,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C192" t="s">
         <v>614</v>
@@ -11358,7 +11358,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C193" t="s">
         <v>617</v>
@@ -11393,7 +11393,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C194" t="s">
         <v>620</v>
@@ -11428,7 +11428,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C195" t="s">
         <v>624</v>
@@ -11446,7 +11446,7 @@
         <v>1996</v>
       </c>
       <c r="I195" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="J195" t="s">
         <v>1361</v>
@@ -11460,7 +11460,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C196" t="s">
         <v>627</v>
@@ -11495,7 +11495,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C197" t="s">
         <v>630</v>
@@ -11530,7 +11530,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C198" t="s">
         <v>633</v>
@@ -11565,7 +11565,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C199" t="s">
         <v>636</v>
@@ -11600,7 +11600,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C200" t="s">
         <v>639</v>
@@ -11635,7 +11635,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C201" t="s">
         <v>642</v>
@@ -11670,7 +11670,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C202" t="s">
         <v>645</v>
@@ -11705,7 +11705,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C203" t="s">
         <v>648</v>
@@ -11740,7 +11740,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C204" t="s">
         <v>651</v>
@@ -11775,7 +11775,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C205" t="s">
         <v>654</v>
@@ -11810,7 +11810,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C206" t="s">
         <v>1331</v>
@@ -11845,7 +11845,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C207" t="s">
         <v>658</v>
@@ -11866,7 +11866,7 @@
         <v>655863516</v>
       </c>
       <c r="I207" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="J207" t="s">
         <v>1361</v>
@@ -11880,7 +11880,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C208" t="s">
         <v>661</v>
@@ -11915,7 +11915,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C209" t="s">
         <v>664</v>
@@ -11950,7 +11950,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C210" t="s">
         <v>667</v>
@@ -11985,7 +11985,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C211" t="s">
         <v>670</v>
@@ -12020,7 +12020,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C212" t="s">
         <v>673</v>
@@ -12055,7 +12055,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C213" t="s">
         <v>676</v>
@@ -12090,7 +12090,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C214" t="s">
         <v>1333</v>
@@ -12125,7 +12125,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C215" t="s">
         <v>1336</v>
@@ -12160,7 +12160,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C216" t="s">
         <v>681</v>
@@ -12195,7 +12195,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C217" t="s">
         <v>684</v>
@@ -12230,7 +12230,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C218" t="s">
         <v>687</v>
@@ -12265,7 +12265,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C219" t="s">
         <v>690</v>
@@ -12300,7 +12300,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C220" t="s">
         <v>694</v>
@@ -12335,7 +12335,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C221" t="s">
         <v>698</v>
@@ -12370,7 +12370,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C222" t="s">
         <v>701</v>
@@ -12405,7 +12405,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C223" t="s">
         <v>704</v>
@@ -12440,7 +12440,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C224" t="s">
         <v>707</v>
@@ -12475,7 +12475,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C225" t="s">
         <v>710</v>
@@ -12510,7 +12510,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C226" t="s">
         <v>713</v>
@@ -12545,7 +12545,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C227" t="s">
         <v>716</v>
@@ -12580,7 +12580,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C228" t="s">
         <v>719</v>
@@ -12615,7 +12615,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C229" t="s">
         <v>722</v>
@@ -12650,7 +12650,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C230" t="s">
         <v>725</v>
@@ -12685,7 +12685,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C231" t="s">
         <v>728</v>
@@ -12720,7 +12720,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C232" t="s">
         <v>732</v>
@@ -12755,7 +12755,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C233" t="s">
         <v>735</v>
@@ -12790,7 +12790,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C234" t="s">
         <v>738</v>
@@ -12825,7 +12825,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C235" t="s">
         <v>18</v>
@@ -12860,7 +12860,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C236" t="s">
         <v>741</v>
@@ -12895,7 +12895,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C237" t="s">
         <v>744</v>
@@ -12930,7 +12930,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C238" t="s">
         <v>747</v>
@@ -12965,7 +12965,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C239" t="s">
         <v>750</v>
@@ -13000,7 +13000,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C240" t="s">
         <v>753</v>
@@ -13035,7 +13035,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C241" t="s">
         <v>756</v>
@@ -13070,7 +13070,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C242" t="s">
         <v>759</v>
@@ -13105,7 +13105,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C243" t="s">
         <v>763</v>
@@ -13140,7 +13140,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C244" t="s">
         <v>767</v>
@@ -13175,7 +13175,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C245" t="s">
         <v>770</v>
@@ -13210,7 +13210,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C246" t="s">
         <v>773</v>
@@ -13245,7 +13245,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C247" t="s">
         <v>776</v>
@@ -13280,7 +13280,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C248" t="s">
         <v>779</v>
@@ -13315,7 +13315,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C249" t="s">
         <v>782</v>
@@ -13350,7 +13350,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C250" t="s">
         <v>785</v>
@@ -13385,7 +13385,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C251" t="s">
         <v>788</v>
@@ -13420,7 +13420,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C252" t="s">
         <v>13</v>
@@ -13455,7 +13455,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C253" t="s">
         <v>791</v>
@@ -13490,7 +13490,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C254" t="s">
         <v>794</v>
@@ -13525,7 +13525,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C255" t="s">
         <v>797</v>
@@ -13560,7 +13560,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C256" t="s">
         <v>800</v>
@@ -13595,7 +13595,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C257" t="s">
         <v>803</v>
@@ -13630,7 +13630,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C258" t="s">
         <v>806</v>
@@ -13665,7 +13665,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C259" t="s">
         <v>809</v>
@@ -13700,7 +13700,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C260" t="s">
         <v>812</v>
@@ -13735,7 +13735,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C261" t="s">
         <v>815</v>
@@ -13770,7 +13770,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C262" t="s">
         <v>1338</v>
@@ -13805,7 +13805,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C263" t="s">
         <v>820</v>
@@ -13837,7 +13837,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C264" t="s">
         <v>822</v>
@@ -13872,7 +13872,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C265" t="s">
         <v>825</v>
@@ -13907,7 +13907,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C266" t="s">
         <v>828</v>
@@ -13942,7 +13942,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C267" t="s">
         <v>831</v>
@@ -13977,7 +13977,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C268" t="s">
         <v>834</v>
@@ -14012,7 +14012,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C269" t="s">
         <v>837</v>
@@ -14047,7 +14047,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C270" t="s">
         <v>19</v>
@@ -14082,7 +14082,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C271" t="s">
         <v>1339</v>
@@ -14117,7 +14117,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C272" t="s">
         <v>841</v>
@@ -14152,7 +14152,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C273" t="s">
         <v>844</v>
@@ -14187,7 +14187,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C274" t="s">
         <v>847</v>
@@ -14222,7 +14222,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C275" t="s">
         <v>850</v>
@@ -14257,7 +14257,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C276" t="s">
         <v>853</v>
@@ -14292,7 +14292,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C277" t="s">
         <v>856</v>
@@ -14327,7 +14327,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C278" t="s">
         <v>1341</v>
@@ -14362,7 +14362,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C279" t="s">
         <v>861</v>
@@ -14397,7 +14397,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C280" t="s">
         <v>864</v>
@@ -14432,7 +14432,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C281" t="s">
         <v>867</v>
@@ -14467,7 +14467,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C282" t="s">
         <v>870</v>
@@ -14502,7 +14502,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C283" t="s">
         <v>16</v>
@@ -14537,7 +14537,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C284" t="s">
         <v>873</v>
@@ -14572,7 +14572,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C285" t="s">
         <v>876</v>
@@ -14607,7 +14607,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C286" t="s">
         <v>878</v>
@@ -14642,7 +14642,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C287" t="s">
         <v>881</v>
@@ -14677,7 +14677,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C288" t="s">
         <v>884</v>
@@ -14712,7 +14712,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C289" t="s">
         <v>887</v>
@@ -14747,7 +14747,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C290" t="s">
         <v>1344</v>
@@ -14782,7 +14782,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C291" t="s">
         <v>893</v>
@@ -14817,7 +14817,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C292" t="s">
         <v>896</v>
@@ -14852,7 +14852,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C293" t="s">
         <v>899</v>
@@ -14887,7 +14887,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C294" t="s">
         <v>902</v>
@@ -14922,7 +14922,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C295" t="s">
         <v>905</v>
@@ -14957,7 +14957,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C296" t="s">
         <v>908</v>
@@ -14992,7 +14992,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C297" t="s">
         <v>911</v>
@@ -15027,7 +15027,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C298" t="s">
         <v>913</v>
@@ -15062,7 +15062,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C299" t="s">
         <v>916</v>
@@ -15097,7 +15097,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C300" t="s">
         <v>919</v>
@@ -15132,7 +15132,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C301" t="s">
         <v>922</v>
@@ -15167,7 +15167,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C302" t="s">
         <v>925</v>
@@ -15202,7 +15202,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C303" t="s">
         <v>929</v>
@@ -15237,7 +15237,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C304" t="s">
         <v>932</v>
@@ -15272,7 +15272,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C305" t="s">
         <v>935</v>
@@ -15307,7 +15307,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C306" t="s">
         <v>938</v>
@@ -15342,7 +15342,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C307" t="s">
         <v>941</v>
@@ -15377,7 +15377,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C308" t="s">
         <v>944</v>
@@ -15412,7 +15412,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C309" t="s">
         <v>947</v>
@@ -15447,7 +15447,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C310" t="s">
         <v>950</v>
@@ -15482,7 +15482,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C311" t="s">
         <v>953</v>
@@ -15517,7 +15517,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C312" t="s">
         <v>956</v>
@@ -15552,7 +15552,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C313" t="s">
         <v>959</v>
@@ -15587,7 +15587,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C314" t="s">
         <v>962</v>
@@ -15622,7 +15622,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C315" t="s">
         <v>966</v>
@@ -15657,7 +15657,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C316" t="s">
         <v>1345</v>
@@ -15689,7 +15689,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C317" t="s">
         <v>970</v>
@@ -15724,7 +15724,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C318" t="s">
         <v>973</v>
@@ -15759,7 +15759,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C319" t="s">
         <v>976</v>
@@ -15794,7 +15794,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C320" t="s">
         <v>979</v>
@@ -15829,7 +15829,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C321" t="s">
         <v>982</v>
@@ -15864,7 +15864,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C322" t="s">
         <v>985</v>
@@ -15899,7 +15899,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C323" t="s">
         <v>988</v>
@@ -15934,7 +15934,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C324" t="s">
         <v>991</v>
@@ -15969,7 +15969,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C325" t="s">
         <v>1347</v>
@@ -16004,7 +16004,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C326" t="s">
         <v>995</v>
@@ -16039,7 +16039,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C327" t="s">
         <v>998</v>
@@ -16074,7 +16074,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C328" t="s">
         <v>1001</v>
@@ -16109,7 +16109,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C329" t="s">
         <v>1004</v>
@@ -16144,7 +16144,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C330" t="s">
         <v>1007</v>
@@ -16179,7 +16179,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C331" t="s">
         <v>1010</v>
@@ -16214,7 +16214,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C332" t="s">
         <v>1013</v>
@@ -16249,7 +16249,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C333" t="s">
         <v>1016</v>
@@ -16284,7 +16284,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C334" t="s">
         <v>1019</v>
@@ -16319,7 +16319,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C335" t="s">
         <v>1022</v>
@@ -16354,7 +16354,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C336" t="s">
         <v>1025</v>
@@ -16389,7 +16389,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C337" t="s">
         <v>1028</v>
@@ -16424,7 +16424,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C338" t="s">
         <v>1031</v>
@@ -16459,7 +16459,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C339" t="s">
         <v>1034</v>
@@ -16494,7 +16494,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C340" t="s">
         <v>1037</v>
@@ -16529,7 +16529,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C341" t="s">
         <v>1041</v>
@@ -16564,7 +16564,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C342" t="s">
         <v>1044</v>
@@ -16599,7 +16599,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C343" t="s">
         <v>1349</v>
@@ -16634,7 +16634,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C344" t="s">
         <v>1049</v>
@@ -16669,7 +16669,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C345" t="s">
         <v>1052</v>
@@ -16704,7 +16704,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C346" t="s">
         <v>1055</v>
@@ -16739,7 +16739,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C347" t="s">
         <v>1058</v>
@@ -16774,7 +16774,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C348" t="s">
         <v>1061</v>
@@ -16809,7 +16809,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C349" t="s">
         <v>1064</v>
@@ -16844,7 +16844,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C350" t="s">
         <v>1067</v>
@@ -16879,7 +16879,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C351" t="s">
         <v>1350</v>
@@ -16914,7 +16914,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C352" t="s">
         <v>1070</v>
@@ -16949,7 +16949,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C353" t="s">
         <v>1073</v>
@@ -16984,7 +16984,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C354" t="s">
         <v>1076</v>
@@ -17019,7 +17019,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C355" t="s">
         <v>1079</v>
@@ -17054,7 +17054,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C356" t="s">
         <v>1082</v>
@@ -17089,7 +17089,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C357" t="s">
         <v>1085</v>
@@ -17124,7 +17124,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C358" t="s">
         <v>1088</v>
@@ -17159,7 +17159,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C359" t="s">
         <v>1091</v>
@@ -17194,7 +17194,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C360" t="s">
         <v>1094</v>
@@ -17229,7 +17229,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C361" t="s">
         <v>1097</v>
@@ -17264,7 +17264,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>1101</v>
@@ -17299,7 +17299,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C363" t="s">
         <v>1106</v>
@@ -17334,7 +17334,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C364" t="s">
         <v>1109</v>
@@ -17369,7 +17369,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C365" t="s">
         <v>1112</v>
@@ -17404,7 +17404,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C366" t="s">
         <v>1115</v>
@@ -17439,7 +17439,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C367" t="s">
         <v>1118</v>
@@ -17474,7 +17474,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C368" t="s">
         <v>1121</v>
@@ -17509,7 +17509,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C369" t="s">
         <v>1124</v>
@@ -17544,7 +17544,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C370" t="s">
         <v>1127</v>
@@ -17579,7 +17579,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C371" t="s">
         <v>1130</v>
@@ -17614,7 +17614,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C372" t="s">
         <v>1133</v>
@@ -17716,7 +17716,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>1365</v>
+        <v>1396</v>
       </c>
       <c r="C375" t="s">
         <v>1142</v>
@@ -17751,7 +17751,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>1365</v>
+        <v>1396</v>
       </c>
       <c r="C376" t="s">
         <v>1146</v>
@@ -17923,7 +17923,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>1365</v>
+        <v>1396</v>
       </c>
       <c r="C381" t="s">
         <v>1167</v>
@@ -17958,7 +17958,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>1365</v>
+        <v>1396</v>
       </c>
       <c r="C382" t="s">
         <v>1171</v>
@@ -18273,7 +18273,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>1365</v>
+        <v>1284</v>
       </c>
       <c r="C391" t="s">
         <v>1199</v>
@@ -18308,7 +18308,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>1365</v>
+        <v>1284</v>
       </c>
       <c r="C392" t="s">
         <v>1203</v>
@@ -18343,7 +18343,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>1365</v>
+        <v>1396</v>
       </c>
       <c r="C393" t="s">
         <v>1207</v>
@@ -18378,7 +18378,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>1365</v>
+        <v>1396</v>
       </c>
       <c r="C394" t="s">
         <v>1211</v>
@@ -18413,7 +18413,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>1365</v>
+        <v>1396</v>
       </c>
       <c r="C395" t="s">
         <v>1215</v>
@@ -18448,7 +18448,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>1365</v>
+        <v>1284</v>
       </c>
       <c r="C396" t="s">
         <v>1219</v>
@@ -18483,7 +18483,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>1365</v>
+        <v>1396</v>
       </c>
       <c r="C397" t="s">
         <v>1223</v>
@@ -18518,7 +18518,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>1365</v>
+        <v>1396</v>
       </c>
       <c r="C398" t="s">
         <v>1227</v>
@@ -18553,7 +18553,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>1365</v>
+        <v>1396</v>
       </c>
       <c r="C399" t="s">
         <v>1231</v>
@@ -18588,7 +18588,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>1366</v>
+        <v>1397</v>
       </c>
       <c r="C400" t="s">
         <v>1235</v>
@@ -18620,7 +18620,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>1366</v>
+        <v>1397</v>
       </c>
       <c r="C401" t="s">
         <v>1351</v>
@@ -18687,7 +18687,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>1366</v>
+        <v>1397</v>
       </c>
       <c r="C403" t="s">
         <v>1352</v>
@@ -18722,7 +18722,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>1366</v>
+        <v>1397</v>
       </c>
       <c r="C404" t="s">
         <v>1354</v>
@@ -18757,7 +18757,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>1367</v>
+        <v>1398</v>
       </c>
       <c r="C405" t="s">
         <v>1248</v>
@@ -18792,7 +18792,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>1367</v>
+        <v>1398</v>
       </c>
       <c r="C406" t="s">
         <v>1251</v>
@@ -18827,7 +18827,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>1367</v>
+        <v>1398</v>
       </c>
       <c r="C407" t="s">
         <v>1254</v>
@@ -18862,7 +18862,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>1367</v>
+        <v>1398</v>
       </c>
       <c r="C408" t="s">
         <v>1257</v>
@@ -18897,7 +18897,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>1367</v>
+        <v>1398</v>
       </c>
       <c r="C409" t="s">
         <v>1260</v>
@@ -18932,7 +18932,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>1367</v>
+        <v>1398</v>
       </c>
       <c r="C410" t="s">
         <v>1355</v>
@@ -18967,7 +18967,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>1367</v>
+        <v>1398</v>
       </c>
       <c r="C411" t="s">
         <v>1265</v>
@@ -19002,7 +19002,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>1367</v>
+        <v>1398</v>
       </c>
       <c r="C412" t="s">
         <v>1268</v>
@@ -19037,7 +19037,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>1367</v>
+        <v>1398</v>
       </c>
       <c r="C413" t="s">
         <v>1271</v>
@@ -19072,7 +19072,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>1367</v>
+        <v>1398</v>
       </c>
       <c r="C414" t="s">
         <v>1274</v>
@@ -19107,7 +19107,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>1368</v>
+        <v>1399</v>
       </c>
       <c r="C415" t="s">
         <v>1277</v>
@@ -19177,7 +19177,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>1368</v>
+        <v>1399</v>
       </c>
       <c r="C417" t="s">
         <v>1356</v>
@@ -19212,7 +19212,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>1368</v>
+        <v>1399</v>
       </c>
       <c r="C418" t="s">
         <v>1289</v>
@@ -19247,7 +19247,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>1368</v>
+        <v>1399</v>
       </c>
       <c r="C419" t="s">
         <v>1293</v>
@@ -19282,7 +19282,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>1368</v>
+        <v>1399</v>
       </c>
       <c r="C420" t="s">
         <v>1297</v>
@@ -19317,7 +19317,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>1369</v>
+        <v>1399</v>
       </c>
       <c r="C421" t="s">
         <v>1301</v>
@@ -19349,7 +19349,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>1369</v>
+        <v>1399</v>
       </c>
       <c r="C422" t="s">
         <v>1358</v>
@@ -19381,7 +19381,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>1369</v>
+        <v>1399</v>
       </c>
       <c r="C423" t="s">
         <v>1306</v>

--- a/data/夏令营资料库.xlsx
+++ b/data/夏令营资料库.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuewe\Downloads\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A62641-2FA5-44D5-9EEC-90FFFD99BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57566FB-693B-4048-B927-06A41A57B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="1399">
   <si>
     <t>顺序</t>
   </si>
@@ -3885,9 +3885,6 @@
   </si>
   <si>
     <t>27/11/1981</t>
-  </si>
-  <si>
-    <t>行政同工</t>
   </si>
   <si>
     <t>X1486012M</t>
@@ -4132,10 +4129,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>同工1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4队</t>
   </si>
   <si>
@@ -4241,6 +4234,10 @@
   </si>
   <si>
     <t>Badalona 同工队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同工队</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4626,12 +4623,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="M400" sqref="M400"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
@@ -4703,7 +4701,7 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K2">
         <v>246</v>
@@ -4738,7 +4736,7 @@
         <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K3">
         <v>427</v>
@@ -4770,10 +4768,10 @@
         <v>624205213</v>
       </c>
       <c r="I4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K4">
         <v>453</v>
@@ -4808,7 +4806,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K5">
         <v>204</v>
@@ -4843,7 +4841,7 @@
         <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K6">
         <v>123</v>
@@ -4878,7 +4876,7 @@
         <v>692</v>
       </c>
       <c r="J7" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K7">
         <v>352</v>
@@ -4910,10 +4908,10 @@
         <v>624256842</v>
       </c>
       <c r="I8" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K8">
         <v>452</v>
@@ -4945,10 +4943,10 @@
         <v>36304556578</v>
       </c>
       <c r="I9" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J9" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K9">
         <v>407</v>
@@ -4983,7 +4981,7 @@
         <v>692</v>
       </c>
       <c r="J10" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K10">
         <v>351</v>
@@ -5018,7 +5016,7 @@
         <v>692</v>
       </c>
       <c r="J11" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K11">
         <v>302</v>
@@ -5050,10 +5048,10 @@
         <v>692023519</v>
       </c>
       <c r="I12" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J12" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K12">
         <v>253</v>
@@ -5085,10 +5083,10 @@
         <v>642732587</v>
       </c>
       <c r="I13" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="J13" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K13">
         <v>406</v>
@@ -5123,7 +5121,7 @@
         <v>692</v>
       </c>
       <c r="J14" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K14">
         <v>343</v>
@@ -5158,7 +5156,7 @@
         <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K15">
         <v>134</v>
@@ -5190,10 +5188,10 @@
         <v>722422325</v>
       </c>
       <c r="I16" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J16" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K16">
         <v>404</v>
@@ -5225,10 +5223,10 @@
         <v>641553060</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="J17" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K17">
         <v>451</v>
@@ -5263,7 +5261,7 @@
         <v>692</v>
       </c>
       <c r="J18" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K18">
         <v>352</v>
@@ -5295,10 +5293,10 @@
         <v>686393704</v>
       </c>
       <c r="I19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J19" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K19">
         <v>406</v>
@@ -5333,7 +5331,7 @@
         <v>62</v>
       </c>
       <c r="J20" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K20">
         <v>106</v>
@@ -5365,10 +5363,10 @@
         <v>619731709</v>
       </c>
       <c r="I21" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J21" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K21">
         <v>253</v>
@@ -5400,10 +5398,10 @@
         <v>624200934</v>
       </c>
       <c r="I22" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J22" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K22">
         <v>441</v>
@@ -5438,7 +5436,7 @@
         <v>692</v>
       </c>
       <c r="J23" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K23">
         <v>353</v>
@@ -5473,7 +5471,7 @@
         <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K24">
         <v>105</v>
@@ -5508,7 +5506,7 @@
         <v>692</v>
       </c>
       <c r="J25" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K25">
         <v>325</v>
@@ -5540,10 +5538,10 @@
         <v>684122628</v>
       </c>
       <c r="I26" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J26" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K26">
         <v>406</v>
@@ -5578,7 +5576,7 @@
         <v>42</v>
       </c>
       <c r="J27" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K27">
         <v>212</v>
@@ -5610,10 +5608,10 @@
         <v>688078861</v>
       </c>
       <c r="I28" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J28" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K28">
         <v>404</v>
@@ -5648,7 +5646,7 @@
         <v>692</v>
       </c>
       <c r="J29" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K29">
         <v>352</v>
@@ -5683,7 +5681,7 @@
         <v>692</v>
       </c>
       <c r="J30" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K30">
         <v>325</v>
@@ -5718,7 +5716,7 @@
         <v>62</v>
       </c>
       <c r="J31" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K31">
         <v>153</v>
@@ -5750,10 +5748,10 @@
         <v>678247708</v>
       </c>
       <c r="I32" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J32" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K32">
         <v>253</v>
@@ -5785,10 +5783,10 @@
         <v>36308279230</v>
       </c>
       <c r="I33" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J33" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K33">
         <v>407</v>
@@ -5820,10 +5818,10 @@
         <v>692238357</v>
       </c>
       <c r="I34" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J34" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K34">
         <v>453</v>
@@ -5858,7 +5856,7 @@
         <v>692</v>
       </c>
       <c r="J35" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K35">
         <v>354</v>
@@ -5890,10 +5888,10 @@
         <v>642838226</v>
       </c>
       <c r="I36" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J36" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K36">
         <v>413</v>
@@ -5925,10 +5923,10 @@
         <v>641201502</v>
       </c>
       <c r="I37" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J37" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K37">
         <v>223</v>
@@ -5939,7 +5937,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C38" t="s">
         <v>153</v>
@@ -5963,7 +5961,7 @@
         <v>62</v>
       </c>
       <c r="J38" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K38">
         <v>129</v>
@@ -5974,7 +5972,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C39" t="s">
         <v>157</v>
@@ -5998,7 +5996,7 @@
         <v>692</v>
       </c>
       <c r="J39" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K39">
         <v>327</v>
@@ -6009,7 +6007,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C40" t="s">
         <v>160</v>
@@ -6030,10 +6028,10 @@
         <v>688188070</v>
       </c>
       <c r="I40" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J40" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K40">
         <v>405</v>
@@ -6044,7 +6042,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C41" t="s">
         <v>163</v>
@@ -6068,7 +6066,7 @@
         <v>692</v>
       </c>
       <c r="J41" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K41">
         <v>353</v>
@@ -6079,7 +6077,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C42" t="s">
         <v>166</v>
@@ -6100,10 +6098,10 @@
         <v>680900557</v>
       </c>
       <c r="I42" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J42" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K42">
         <v>223</v>
@@ -6114,7 +6112,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C43" t="s">
         <v>168</v>
@@ -6135,10 +6133,10 @@
         <v>636862028</v>
       </c>
       <c r="I43" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J43" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K43">
         <v>432</v>
@@ -6149,7 +6147,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C44" t="s">
         <v>171</v>
@@ -6173,7 +6171,7 @@
         <v>62</v>
       </c>
       <c r="J44" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K44">
         <v>134</v>
@@ -6184,7 +6182,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C45" t="s">
         <v>174</v>
@@ -6208,7 +6206,7 @@
         <v>62</v>
       </c>
       <c r="J45" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K45">
         <v>153</v>
@@ -6219,7 +6217,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C46" t="s">
         <v>177</v>
@@ -6240,10 +6238,10 @@
         <v>672773223</v>
       </c>
       <c r="I46" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J46" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K46">
         <v>407</v>
@@ -6254,7 +6252,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C47" t="s">
         <v>180</v>
@@ -6275,10 +6273,10 @@
         <v>36302110144</v>
       </c>
       <c r="I47" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J47" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K47">
         <v>406</v>
@@ -6289,7 +6287,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C48" t="s">
         <v>183</v>
@@ -6313,7 +6311,7 @@
         <v>62</v>
       </c>
       <c r="J48" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K48">
         <v>153</v>
@@ -6324,7 +6322,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C49" t="s">
         <v>186</v>
@@ -6345,10 +6343,10 @@
         <v>611015974</v>
       </c>
       <c r="I49" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J49" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K49">
         <v>207</v>
@@ -6359,7 +6357,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C50" t="s">
         <v>190</v>
@@ -6383,7 +6381,7 @@
         <v>62</v>
       </c>
       <c r="J50" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K50">
         <v>130</v>
@@ -6394,7 +6392,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C51" t="s">
         <v>194</v>
@@ -6418,7 +6416,7 @@
         <v>692</v>
       </c>
       <c r="J51" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K51">
         <v>301</v>
@@ -6429,10 +6427,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C52" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D52" t="s">
         <v>197</v>
@@ -6450,10 +6448,10 @@
         <v>695687025</v>
       </c>
       <c r="I52" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J52" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K52">
         <v>453</v>
@@ -6464,7 +6462,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C53" t="s">
         <v>199</v>
@@ -6488,7 +6486,7 @@
         <v>692</v>
       </c>
       <c r="J53" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K53">
         <v>353</v>
@@ -6499,7 +6497,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C54" t="s">
         <v>202</v>
@@ -6520,10 +6518,10 @@
         <v>688116977</v>
       </c>
       <c r="I54" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J54" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K54">
         <v>255</v>
@@ -6534,7 +6532,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C55" t="s">
         <v>205</v>
@@ -6555,10 +6553,10 @@
         <v>691497352</v>
       </c>
       <c r="I55" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J55" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K55">
         <v>426</v>
@@ -6569,7 +6567,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C56" t="s">
         <v>208</v>
@@ -6593,7 +6591,7 @@
         <v>692</v>
       </c>
       <c r="J56" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K56">
         <v>304</v>
@@ -6604,7 +6602,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C57" t="s">
         <v>211</v>
@@ -6628,7 +6626,7 @@
         <v>49</v>
       </c>
       <c r="J57" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K57">
         <v>243</v>
@@ -6639,7 +6637,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C58" t="s">
         <v>214</v>
@@ -6663,7 +6661,7 @@
         <v>692</v>
       </c>
       <c r="J58" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K58">
         <v>326</v>
@@ -6674,7 +6672,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C59" t="s">
         <v>217</v>
@@ -6695,10 +6693,10 @@
         <v>601030099</v>
       </c>
       <c r="I59" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J59" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K59">
         <v>424</v>
@@ -6709,7 +6707,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C60" t="s">
         <v>220</v>
@@ -6733,7 +6731,7 @@
         <v>62</v>
       </c>
       <c r="J60" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K60">
         <v>106</v>
@@ -6744,7 +6742,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C61" t="s">
         <v>223</v>
@@ -6765,10 +6763,10 @@
         <v>626942372</v>
       </c>
       <c r="I61" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K61">
         <v>251</v>
@@ -6779,7 +6777,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C62" t="s">
         <v>226</v>
@@ -6803,7 +6801,7 @@
         <v>42</v>
       </c>
       <c r="J62" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K62">
         <v>424</v>
@@ -6814,7 +6812,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C63" t="s">
         <v>229</v>
@@ -6838,7 +6836,7 @@
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K63">
         <v>122</v>
@@ -6849,7 +6847,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C64" t="s">
         <v>233</v>
@@ -6870,10 +6868,10 @@
         <v>613598486</v>
       </c>
       <c r="I64" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K64">
         <v>431</v>
@@ -6884,7 +6882,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C65" t="s">
         <v>236</v>
@@ -6905,10 +6903,10 @@
         <v>36301292055</v>
       </c>
       <c r="I65" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J65" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K65">
         <v>442</v>
@@ -6919,7 +6917,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C66" t="s">
         <v>239</v>
@@ -6940,10 +6938,10 @@
         <v>624651898</v>
       </c>
       <c r="I66" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J66" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K66">
         <v>223</v>
@@ -6954,7 +6952,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C67" t="s">
         <v>242</v>
@@ -6978,7 +6976,7 @@
         <v>62</v>
       </c>
       <c r="J67" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K67">
         <v>123</v>
@@ -6989,7 +6987,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C68" t="s">
         <v>245</v>
@@ -7010,10 +7008,10 @@
         <v>672819652</v>
       </c>
       <c r="I68" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J68" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K68">
         <v>431</v>
@@ -7024,7 +7022,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C69" t="s">
         <v>248</v>
@@ -7048,7 +7046,7 @@
         <v>692</v>
       </c>
       <c r="J69" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K69">
         <v>303</v>
@@ -7059,7 +7057,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C70" t="s">
         <v>251</v>
@@ -7083,7 +7081,7 @@
         <v>692</v>
       </c>
       <c r="J70" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K70">
         <v>325</v>
@@ -7094,7 +7092,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C71" t="s">
         <v>254</v>
@@ -7115,10 +7113,10 @@
         <v>613160806</v>
       </c>
       <c r="I71" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J71" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K71">
         <v>253</v>
@@ -7129,7 +7127,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C72" t="s">
         <v>257</v>
@@ -7153,7 +7151,7 @@
         <v>49</v>
       </c>
       <c r="J72" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K72">
         <v>233</v>
@@ -7164,7 +7162,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C73" t="s">
         <v>260</v>
@@ -7188,7 +7186,7 @@
         <v>49</v>
       </c>
       <c r="J73" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K73">
         <v>243</v>
@@ -7199,13 +7197,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C74" t="s">
         <v>263</v>
       </c>
       <c r="D74" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E74" t="s">
         <v>30</v>
@@ -7214,7 +7212,7 @@
         <v>264</v>
       </c>
       <c r="G74" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H74">
         <v>692089456</v>
@@ -7223,7 +7221,7 @@
         <v>42</v>
       </c>
       <c r="J74" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K74">
         <v>212</v>
@@ -7234,7 +7232,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C75" t="s">
         <v>265</v>
@@ -7258,7 +7256,7 @@
         <v>49</v>
       </c>
       <c r="J75" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K75">
         <v>234</v>
@@ -7269,7 +7267,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C76" t="s">
         <v>268</v>
@@ -7290,10 +7288,10 @@
         <v>657929517</v>
       </c>
       <c r="I76" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J76" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K76">
         <v>426</v>
@@ -7304,7 +7302,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C77" t="s">
         <v>271</v>
@@ -7325,10 +7323,10 @@
         <v>635606395</v>
       </c>
       <c r="I77" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J77" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K77">
         <v>143</v>
@@ -7339,7 +7337,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C78" t="s">
         <v>274</v>
@@ -7360,10 +7358,10 @@
         <v>685655832</v>
       </c>
       <c r="I78" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J78" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K78">
         <v>252</v>
@@ -7374,7 +7372,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C79" t="s">
         <v>277</v>
@@ -7398,7 +7396,7 @@
         <v>692</v>
       </c>
       <c r="J79" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K79">
         <v>355</v>
@@ -7409,7 +7407,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C80" t="s">
         <v>280</v>
@@ -7433,7 +7431,7 @@
         <v>49</v>
       </c>
       <c r="J80" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K80">
         <v>204</v>
@@ -7444,7 +7442,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C81" t="s">
         <v>283</v>
@@ -7462,10 +7460,10 @@
         <v>2009</v>
       </c>
       <c r="I81" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J81" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K81">
         <v>407</v>
@@ -7476,7 +7474,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C82" t="s">
         <v>286</v>
@@ -7497,10 +7495,10 @@
         <v>688137990</v>
       </c>
       <c r="I82" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J82" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K82">
         <v>427</v>
@@ -7511,7 +7509,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C83" t="s">
         <v>289</v>
@@ -7535,7 +7533,7 @@
         <v>49</v>
       </c>
       <c r="J83" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K83">
         <v>203</v>
@@ -7546,7 +7544,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C84" t="s">
         <v>292</v>
@@ -7570,7 +7568,7 @@
         <v>62</v>
       </c>
       <c r="J84" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K84">
         <v>134</v>
@@ -7581,7 +7579,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C85" t="s">
         <v>295</v>
@@ -7602,10 +7600,10 @@
         <v>667819346</v>
       </c>
       <c r="I85" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J85" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K85">
         <v>254</v>
@@ -7616,7 +7614,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C86" t="s">
         <v>298</v>
@@ -7640,7 +7638,7 @@
         <v>62</v>
       </c>
       <c r="J86" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K86">
         <v>121</v>
@@ -7651,7 +7649,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C87" t="s">
         <v>302</v>
@@ -7675,7 +7673,7 @@
         <v>49</v>
       </c>
       <c r="J87" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K87">
         <v>204</v>
@@ -7686,7 +7684,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C88" t="s">
         <v>305</v>
@@ -7707,10 +7705,10 @@
         <v>688159821</v>
       </c>
       <c r="I88" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J88" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K88">
         <v>453</v>
@@ -7721,7 +7719,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C89" t="s">
         <v>308</v>
@@ -7745,7 +7743,7 @@
         <v>692</v>
       </c>
       <c r="J89" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K89">
         <v>351</v>
@@ -7756,7 +7754,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C90" t="s">
         <v>311</v>
@@ -7777,10 +7775,10 @@
         <v>658719717</v>
       </c>
       <c r="I90" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J90" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K90">
         <v>252</v>
@@ -7791,7 +7789,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C91" t="s">
         <v>314</v>
@@ -7815,7 +7813,7 @@
         <v>62</v>
       </c>
       <c r="J91" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K91">
         <v>152</v>
@@ -7826,7 +7824,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C92" t="s">
         <v>317</v>
@@ -7850,7 +7848,7 @@
         <v>692</v>
       </c>
       <c r="J92" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K92">
         <v>305</v>
@@ -7861,7 +7859,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C93" t="s">
         <v>320</v>
@@ -7885,7 +7883,7 @@
         <v>49</v>
       </c>
       <c r="J93" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K93">
         <v>204</v>
@@ -7896,7 +7894,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C94" t="s">
         <v>323</v>
@@ -7920,7 +7918,7 @@
         <v>692</v>
       </c>
       <c r="J94" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K94">
         <v>325</v>
@@ -7931,13 +7929,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>326</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>30</v>
@@ -7952,10 +7950,10 @@
         <v>613250280</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="J95" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K95">
         <v>425</v>
@@ -7966,7 +7964,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C96" t="s">
         <v>328</v>
@@ -7990,7 +7988,7 @@
         <v>49</v>
       </c>
       <c r="J96" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K96">
         <v>233</v>
@@ -8001,7 +7999,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C97" t="s">
         <v>331</v>
@@ -8025,7 +8023,7 @@
         <v>62</v>
       </c>
       <c r="J97" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K97">
         <v>153</v>
@@ -8036,7 +8034,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C98" t="s">
         <v>334</v>
@@ -8060,7 +8058,7 @@
         <v>62</v>
       </c>
       <c r="J98" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K98">
         <v>144</v>
@@ -8071,7 +8069,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C99" t="s">
         <v>338</v>
@@ -8095,7 +8093,7 @@
         <v>692</v>
       </c>
       <c r="J99" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K99">
         <v>326</v>
@@ -8106,7 +8104,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C100" t="s">
         <v>342</v>
@@ -8127,10 +8125,10 @@
         <v>692088108</v>
       </c>
       <c r="I100" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J100" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K100">
         <v>405</v>
@@ -8141,7 +8139,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C101" t="s">
         <v>345</v>
@@ -8165,7 +8163,7 @@
         <v>62</v>
       </c>
       <c r="J101" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K101">
         <v>155</v>
@@ -8176,7 +8174,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C102" t="s">
         <v>348</v>
@@ -8197,10 +8195,10 @@
         <v>646203739</v>
       </c>
       <c r="I102" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J102" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K102">
         <v>251</v>
@@ -8211,7 +8209,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C103" t="s">
         <v>351</v>
@@ -8232,10 +8230,10 @@
         <v>629951807</v>
       </c>
       <c r="I103" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J103" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K103">
         <v>432</v>
@@ -8246,7 +8244,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C104" t="s">
         <v>354</v>
@@ -8270,7 +8268,7 @@
         <v>692</v>
       </c>
       <c r="J104" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K104">
         <v>326</v>
@@ -8281,7 +8279,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C105" t="s">
         <v>357</v>
@@ -8305,7 +8303,7 @@
         <v>62</v>
       </c>
       <c r="J105" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K105">
         <v>154</v>
@@ -8316,7 +8314,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C106" t="s">
         <v>360</v>
@@ -8337,10 +8335,10 @@
         <v>36707575881</v>
       </c>
       <c r="I106" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J106" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K106">
         <v>442</v>
@@ -8351,7 +8349,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C107" t="s">
         <v>363</v>
@@ -8372,10 +8370,10 @@
         <v>622147635</v>
       </c>
       <c r="I107" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J107" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K107">
         <v>205</v>
@@ -8386,7 +8384,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C108" t="s">
         <v>366</v>
@@ -8410,7 +8408,7 @@
         <v>692</v>
       </c>
       <c r="J108" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K108">
         <v>302</v>
@@ -8421,7 +8419,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C109" t="s">
         <v>369</v>
@@ -8442,10 +8440,10 @@
         <v>643910445</v>
       </c>
       <c r="I109" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J109" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K109">
         <v>452</v>
@@ -8456,7 +8454,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C110" t="s">
         <v>372</v>
@@ -8480,7 +8478,7 @@
         <v>49</v>
       </c>
       <c r="J110" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K110">
         <v>231</v>
@@ -8491,7 +8489,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C111" t="s">
         <v>375</v>
@@ -8515,7 +8513,7 @@
         <v>42</v>
       </c>
       <c r="J111" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K111">
         <v>429</v>
@@ -8526,7 +8524,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C112" t="s">
         <v>378</v>
@@ -8550,7 +8548,7 @@
         <v>62</v>
       </c>
       <c r="J112" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K112">
         <v>155</v>
@@ -8561,7 +8559,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C113" t="s">
         <v>381</v>
@@ -8582,10 +8580,10 @@
         <v>635241551</v>
       </c>
       <c r="I113" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J113" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K113">
         <v>208</v>
@@ -8596,7 +8594,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C114" t="s">
         <v>384</v>
@@ -8617,10 +8615,10 @@
         <v>688300777</v>
       </c>
       <c r="I114" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J114" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K114">
         <v>426</v>
@@ -8631,7 +8629,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C115" t="s">
         <v>387</v>
@@ -8655,7 +8653,7 @@
         <v>62</v>
       </c>
       <c r="J115" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K115">
         <v>123</v>
@@ -8666,7 +8664,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C116" t="s">
         <v>390</v>
@@ -8690,7 +8688,7 @@
         <v>49</v>
       </c>
       <c r="J116" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K116">
         <v>243</v>
@@ -8701,7 +8699,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C117" t="s">
         <v>393</v>
@@ -8725,7 +8723,7 @@
         <v>49</v>
       </c>
       <c r="J117" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K117">
         <v>244</v>
@@ -8736,7 +8734,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C118" t="s">
         <v>396</v>
@@ -8760,7 +8758,7 @@
         <v>692</v>
       </c>
       <c r="J118" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K118">
         <v>351</v>
@@ -8771,7 +8769,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C119" t="s">
         <v>399</v>
@@ -8792,10 +8790,10 @@
         <v>624651898</v>
       </c>
       <c r="I119" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J119" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K119">
         <v>205</v>
@@ -8806,7 +8804,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C120" t="s">
         <v>402</v>
@@ -8827,10 +8825,10 @@
         <v>641105136</v>
       </c>
       <c r="I120" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J120" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K120">
         <v>413</v>
@@ -8841,7 +8839,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C121" t="s">
         <v>405</v>
@@ -8862,10 +8860,10 @@
         <v>36305209125</v>
       </c>
       <c r="I121" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J121" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K121">
         <v>442</v>
@@ -8876,7 +8874,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C122" t="s">
         <v>408</v>
@@ -8897,10 +8895,10 @@
         <v>3318380089</v>
       </c>
       <c r="I122" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="J122" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K122">
         <v>455</v>
@@ -8911,7 +8909,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C123" t="s">
         <v>411</v>
@@ -8935,7 +8933,7 @@
         <v>42</v>
       </c>
       <c r="J123" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K123">
         <v>402</v>
@@ -8946,7 +8944,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C124" t="s">
         <v>414</v>
@@ -8970,7 +8968,7 @@
         <v>692</v>
       </c>
       <c r="J124" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K124">
         <v>303</v>
@@ -8981,7 +8979,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C125" t="s">
         <v>417</v>
@@ -9005,7 +9003,7 @@
         <v>62</v>
       </c>
       <c r="J125" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K125">
         <v>155</v>
@@ -9016,13 +9014,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C126" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>1323</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>1324</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>30</v>
@@ -9037,10 +9035,10 @@
         <v>686523278</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="J126" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K126">
         <v>425</v>
@@ -9051,7 +9049,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C127" t="s">
         <v>421</v>
@@ -9075,7 +9073,7 @@
         <v>692</v>
       </c>
       <c r="J127" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K127">
         <v>304</v>
@@ -9086,7 +9084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C128" t="s">
         <v>425</v>
@@ -9110,7 +9108,7 @@
         <v>692</v>
       </c>
       <c r="J128" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K128">
         <v>355</v>
@@ -9121,7 +9119,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C129" t="s">
         <v>428</v>
@@ -9142,10 +9140,10 @@
         <v>691828759</v>
       </c>
       <c r="I129" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J129" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K129">
         <v>405</v>
@@ -9156,7 +9154,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C130" t="s">
         <v>431</v>
@@ -9177,10 +9175,10 @@
         <v>722820396</v>
       </c>
       <c r="I130" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J130" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K130">
         <v>431</v>
@@ -9191,7 +9189,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C131" t="s">
         <v>434</v>
@@ -9212,10 +9210,10 @@
         <v>36305358302</v>
       </c>
       <c r="I131" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J131" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K131">
         <v>442</v>
@@ -9226,7 +9224,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C132" t="s">
         <v>437</v>
@@ -9250,7 +9248,7 @@
         <v>692</v>
       </c>
       <c r="J132" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K132">
         <v>351</v>
@@ -9261,7 +9259,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>440</v>
@@ -9282,10 +9280,10 @@
         <v>632932593</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="J133" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K133">
         <v>425</v>
@@ -9296,7 +9294,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C134" t="s">
         <v>443</v>
@@ -9320,7 +9318,7 @@
         <v>42</v>
       </c>
       <c r="J134" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K134">
         <v>426</v>
@@ -9331,7 +9329,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C135" t="s">
         <v>446</v>
@@ -9355,7 +9353,7 @@
         <v>49</v>
       </c>
       <c r="J135" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K135">
         <v>226</v>
@@ -9366,7 +9364,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C136" t="s">
         <v>449</v>
@@ -9387,10 +9385,10 @@
         <v>644510262</v>
       </c>
       <c r="I136" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="J136" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K136">
         <v>143</v>
@@ -9401,7 +9399,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C137" t="s">
         <v>452</v>
@@ -9425,7 +9423,7 @@
         <v>692</v>
       </c>
       <c r="J137" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K137">
         <v>303</v>
@@ -9436,7 +9434,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C138" t="s">
         <v>455</v>
@@ -9457,10 +9455,10 @@
         <v>722441577</v>
       </c>
       <c r="I138" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J138" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K138">
         <v>454</v>
@@ -9471,7 +9469,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C139" t="s">
         <v>458</v>
@@ -9492,10 +9490,10 @@
         <v>673627811</v>
       </c>
       <c r="I139" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J139" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K139">
         <v>432</v>
@@ -9506,7 +9504,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C140" t="s">
         <v>461</v>
@@ -9530,7 +9528,7 @@
         <v>62</v>
       </c>
       <c r="J140" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K140">
         <v>134</v>
@@ -9541,7 +9539,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C141" t="s">
         <v>464</v>
@@ -9565,7 +9563,7 @@
         <v>692</v>
       </c>
       <c r="J141" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K141">
         <v>352</v>
@@ -9576,13 +9574,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C142" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D142" t="s">
         <v>1325</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1326</v>
       </c>
       <c r="E142" t="s">
         <v>31</v>
@@ -9600,7 +9598,7 @@
         <v>49</v>
       </c>
       <c r="J142" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K142">
         <v>244</v>
@@ -9611,7 +9609,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C143" t="s">
         <v>468</v>
@@ -9635,7 +9633,7 @@
         <v>692</v>
       </c>
       <c r="J143" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K143">
         <v>326</v>
@@ -9646,7 +9644,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C144" t="s">
         <v>471</v>
@@ -9670,7 +9668,7 @@
         <v>49</v>
       </c>
       <c r="J144" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K144">
         <v>203</v>
@@ -9681,7 +9679,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C145" t="s">
         <v>474</v>
@@ -9702,10 +9700,10 @@
         <v>36300109369</v>
       </c>
       <c r="I145" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J145" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K145">
         <v>408</v>
@@ -9716,7 +9714,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C146" t="s">
         <v>477</v>
@@ -9740,7 +9738,7 @@
         <v>62</v>
       </c>
       <c r="J146" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K146">
         <v>101</v>
@@ -9751,7 +9749,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C147" t="s">
         <v>481</v>
@@ -9772,10 +9770,10 @@
         <v>693744401</v>
       </c>
       <c r="I147" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="J147" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K147">
         <v>208</v>
@@ -9786,7 +9784,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C148" t="s">
         <v>485</v>
@@ -9807,10 +9805,10 @@
         <v>631383659</v>
       </c>
       <c r="I148" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J148" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K148">
         <v>427</v>
@@ -9821,7 +9819,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C149" t="s">
         <v>488</v>
@@ -9845,7 +9843,7 @@
         <v>49</v>
       </c>
       <c r="J149" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K149">
         <v>226</v>
@@ -9856,7 +9854,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C150" t="s">
         <v>491</v>
@@ -9880,7 +9878,7 @@
         <v>62</v>
       </c>
       <c r="J150" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K150">
         <v>106</v>
@@ -9891,7 +9889,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C151" t="s">
         <v>494</v>
@@ -9912,10 +9910,10 @@
         <v>688197118</v>
       </c>
       <c r="I151" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J151" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K151">
         <v>207</v>
@@ -9926,7 +9924,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
@@ -9947,10 +9945,10 @@
         <v>640335933</v>
       </c>
       <c r="I152" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J152" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K152">
         <v>455</v>
@@ -9961,7 +9959,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C153" t="s">
         <v>497</v>
@@ -9985,7 +9983,7 @@
         <v>62</v>
       </c>
       <c r="J153" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K153">
         <v>133</v>
@@ -9996,7 +9994,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C154" t="s">
         <v>500</v>
@@ -10020,7 +10018,7 @@
         <v>62</v>
       </c>
       <c r="J154" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K154">
         <v>131</v>
@@ -10031,7 +10029,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C155" t="s">
         <v>503</v>
@@ -10052,10 +10050,10 @@
         <v>642875664</v>
       </c>
       <c r="I155" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J155" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K155">
         <v>252</v>
@@ -10066,7 +10064,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C156" t="s">
         <v>506</v>
@@ -10090,7 +10088,7 @@
         <v>62</v>
       </c>
       <c r="J156" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K156">
         <v>124</v>
@@ -10101,7 +10099,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C157" t="s">
         <v>509</v>
@@ -10125,7 +10123,7 @@
         <v>62</v>
       </c>
       <c r="J157" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K157">
         <v>144</v>
@@ -10136,7 +10134,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C158" t="s">
         <v>512</v>
@@ -10160,7 +10158,7 @@
         <v>62</v>
       </c>
       <c r="J158" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K158">
         <v>128</v>
@@ -10171,7 +10169,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C159" t="s">
         <v>516</v>
@@ -10195,7 +10193,7 @@
         <v>49</v>
       </c>
       <c r="J159" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K159">
         <v>227</v>
@@ -10206,7 +10204,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C160" t="s">
         <v>519</v>
@@ -10230,7 +10228,7 @@
         <v>692</v>
       </c>
       <c r="J160" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K160">
         <v>304</v>
@@ -10241,7 +10239,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C161" t="s">
         <v>522</v>
@@ -10265,7 +10263,7 @@
         <v>49</v>
       </c>
       <c r="J161" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K161">
         <v>203</v>
@@ -10276,7 +10274,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C162" t="s">
         <v>525</v>
@@ -10300,7 +10298,7 @@
         <v>62</v>
       </c>
       <c r="J162" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K162">
         <v>152</v>
@@ -10311,7 +10309,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C163" t="s">
         <v>528</v>
@@ -10332,10 +10330,10 @@
         <v>673197771</v>
       </c>
       <c r="I163" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J163" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K163">
         <v>431</v>
@@ -10346,7 +10344,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C164" t="s">
         <v>531</v>
@@ -10370,7 +10368,7 @@
         <v>49</v>
       </c>
       <c r="J164" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K164">
         <v>233</v>
@@ -10381,7 +10379,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C165" t="s">
         <v>534</v>
@@ -10405,7 +10403,7 @@
         <v>62</v>
       </c>
       <c r="J165" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K165">
         <v>152</v>
@@ -10416,7 +10414,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C166" t="s">
         <v>537</v>
@@ -10440,7 +10438,7 @@
         <v>42</v>
       </c>
       <c r="J166" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K166">
         <v>427</v>
@@ -10451,7 +10449,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C167" t="s">
         <v>540</v>
@@ -10475,7 +10473,7 @@
         <v>692</v>
       </c>
       <c r="J167" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K167">
         <v>302</v>
@@ -10486,7 +10484,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C168" t="s">
         <v>543</v>
@@ -10507,10 +10505,10 @@
         <v>36308816659</v>
       </c>
       <c r="I168" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J168" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K168">
         <v>442</v>
@@ -10521,7 +10519,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C169" t="s">
         <v>546</v>
@@ -10545,7 +10543,7 @@
         <v>62</v>
       </c>
       <c r="J169" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K169">
         <v>104</v>
@@ -10556,7 +10554,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C170" t="s">
         <v>549</v>
@@ -10580,7 +10578,7 @@
         <v>692</v>
       </c>
       <c r="J170" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K170">
         <v>328</v>
@@ -10591,7 +10589,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C171" t="s">
         <v>553</v>
@@ -10609,10 +10607,10 @@
         <v>1996</v>
       </c>
       <c r="I171" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="J171" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K171">
         <v>433</v>
@@ -10623,7 +10621,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C172" t="s">
         <v>556</v>
@@ -10644,10 +10642,10 @@
         <v>688021321</v>
       </c>
       <c r="I172" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J172" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K172">
         <v>403</v>
@@ -10658,7 +10656,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C173" t="s">
         <v>559</v>
@@ -10682,7 +10680,7 @@
         <v>49</v>
       </c>
       <c r="J173" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K173">
         <v>232</v>
@@ -10693,10 +10691,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C174" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D174" t="s">
         <v>562</v>
@@ -10714,10 +10712,10 @@
         <v>682894491</v>
       </c>
       <c r="I174" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J174" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K174">
         <v>434</v>
@@ -10728,7 +10726,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C175" t="s">
         <v>564</v>
@@ -10752,7 +10750,7 @@
         <v>49</v>
       </c>
       <c r="J175" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K175">
         <v>203</v>
@@ -10763,7 +10761,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C176" t="s">
         <v>567</v>
@@ -10787,7 +10785,7 @@
         <v>49</v>
       </c>
       <c r="J176" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K176">
         <v>226</v>
@@ -10798,7 +10796,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C177" t="s">
         <v>570</v>
@@ -10822,7 +10820,7 @@
         <v>62</v>
       </c>
       <c r="J177" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K177">
         <v>125</v>
@@ -10833,7 +10831,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C178" t="s">
         <v>573</v>
@@ -10854,10 +10852,10 @@
         <v>688143023</v>
       </c>
       <c r="I178" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J178" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K178">
         <v>434</v>
@@ -10868,7 +10866,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C179" t="s">
         <v>576</v>
@@ -10892,7 +10890,7 @@
         <v>49</v>
       </c>
       <c r="J179" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K179">
         <v>242</v>
@@ -10903,10 +10901,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C180" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D180" t="s">
         <v>579</v>
@@ -10927,7 +10925,7 @@
         <v>692</v>
       </c>
       <c r="J180" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K180">
         <v>332</v>
@@ -10938,7 +10936,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C181" t="s">
         <v>581</v>
@@ -10962,7 +10960,7 @@
         <v>62</v>
       </c>
       <c r="J181" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K181">
         <v>132</v>
@@ -10973,7 +10971,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C182" t="s">
         <v>584</v>
@@ -10997,7 +10995,7 @@
         <v>42</v>
       </c>
       <c r="J182" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K182">
         <v>404</v>
@@ -11008,7 +11006,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C183" t="s">
         <v>587</v>
@@ -11032,7 +11030,7 @@
         <v>692</v>
       </c>
       <c r="J183" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K183">
         <v>305</v>
@@ -11043,7 +11041,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C184" t="s">
         <v>590</v>
@@ -11064,10 +11062,10 @@
         <v>605669607</v>
       </c>
       <c r="I184" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J184" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K184">
         <v>454</v>
@@ -11078,7 +11076,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C185" t="s">
         <v>593</v>
@@ -11102,7 +11100,7 @@
         <v>49</v>
       </c>
       <c r="J185" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K185">
         <v>232</v>
@@ -11113,7 +11111,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C186" t="s">
         <v>596</v>
@@ -11137,7 +11135,7 @@
         <v>62</v>
       </c>
       <c r="J186" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K186">
         <v>105</v>
@@ -11148,7 +11146,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C187" t="s">
         <v>599</v>
@@ -11169,10 +11167,10 @@
         <v>632340706</v>
       </c>
       <c r="I187" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="J187" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K187">
         <v>255</v>
@@ -11183,7 +11181,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C188" t="s">
         <v>602</v>
@@ -11204,10 +11202,10 @@
         <v>680847903</v>
       </c>
       <c r="I188" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J188" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K188">
         <v>251</v>
@@ -11218,7 +11216,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C189" t="s">
         <v>605</v>
@@ -11239,10 +11237,10 @@
         <v>643093102</v>
       </c>
       <c r="I189" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J189" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K189">
         <v>413</v>
@@ -11253,7 +11251,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C190" t="s">
         <v>608</v>
@@ -11277,7 +11275,7 @@
         <v>49</v>
       </c>
       <c r="J190" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K190">
         <v>202</v>
@@ -11288,7 +11286,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C191" t="s">
         <v>611</v>
@@ -11312,7 +11310,7 @@
         <v>62</v>
       </c>
       <c r="J191" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K191">
         <v>124</v>
@@ -11323,7 +11321,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C192" t="s">
         <v>614</v>
@@ -11344,10 +11342,10 @@
         <v>611665407</v>
       </c>
       <c r="I192" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J192" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K192">
         <v>455</v>
@@ -11358,7 +11356,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C193" t="s">
         <v>617</v>
@@ -11382,7 +11380,7 @@
         <v>62</v>
       </c>
       <c r="J193" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K193">
         <v>126</v>
@@ -11393,7 +11391,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C194" t="s">
         <v>620</v>
@@ -11417,7 +11415,7 @@
         <v>62</v>
       </c>
       <c r="J194" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K194">
         <v>102</v>
@@ -11428,7 +11426,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C195" t="s">
         <v>624</v>
@@ -11446,10 +11444,10 @@
         <v>1996</v>
       </c>
       <c r="I195" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="J195" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K195">
         <v>433</v>
@@ -11460,7 +11458,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C196" t="s">
         <v>627</v>
@@ -11481,10 +11479,10 @@
         <v>688027787</v>
       </c>
       <c r="I196" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J196" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K196">
         <v>404</v>
@@ -11495,7 +11493,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C197" t="s">
         <v>630</v>
@@ -11519,7 +11517,7 @@
         <v>49</v>
       </c>
       <c r="J197" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K197">
         <v>231</v>
@@ -11530,7 +11528,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C198" t="s">
         <v>633</v>
@@ -11554,7 +11552,7 @@
         <v>62</v>
       </c>
       <c r="J198" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K198">
         <v>105</v>
@@ -11565,7 +11563,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C199" t="s">
         <v>636</v>
@@ -11589,7 +11587,7 @@
         <v>692</v>
       </c>
       <c r="J199" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K199">
         <v>301</v>
@@ -11600,7 +11598,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C200" t="s">
         <v>639</v>
@@ -11624,7 +11622,7 @@
         <v>49</v>
       </c>
       <c r="J200" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K200">
         <v>227</v>
@@ -11635,7 +11633,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C201" t="s">
         <v>642</v>
@@ -11659,7 +11657,7 @@
         <v>62</v>
       </c>
       <c r="J201" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K201">
         <v>132</v>
@@ -11670,7 +11668,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C202" t="s">
         <v>645</v>
@@ -11691,10 +11689,10 @@
         <v>657895570</v>
       </c>
       <c r="I202" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J202" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K202">
         <v>434</v>
@@ -11705,7 +11703,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C203" t="s">
         <v>648</v>
@@ -11726,10 +11724,10 @@
         <v>623275967</v>
       </c>
       <c r="I203" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J203" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K203">
         <v>452</v>
@@ -11740,7 +11738,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C204" t="s">
         <v>651</v>
@@ -11761,10 +11759,10 @@
         <v>648505992</v>
       </c>
       <c r="I204" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J204" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K204">
         <v>401</v>
@@ -11775,7 +11773,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C205" t="s">
         <v>654</v>
@@ -11799,7 +11797,7 @@
         <v>692</v>
       </c>
       <c r="J205" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K205">
         <v>333</v>
@@ -11810,13 +11808,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C206" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D206" t="s">
         <v>1331</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1332</v>
       </c>
       <c r="E206" t="s">
         <v>30</v>
@@ -11831,10 +11829,10 @@
         <v>675855628</v>
       </c>
       <c r="I206" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J206" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K206">
         <v>212</v>
@@ -11845,7 +11843,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C207" t="s">
         <v>658</v>
@@ -11866,10 +11864,10 @@
         <v>655863516</v>
       </c>
       <c r="I207" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="J207" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K207">
         <v>353</v>
@@ -11880,7 +11878,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C208" t="s">
         <v>661</v>
@@ -11904,7 +11902,7 @@
         <v>49</v>
       </c>
       <c r="J208" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K208">
         <v>231</v>
@@ -11915,7 +11913,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C209" t="s">
         <v>664</v>
@@ -11939,7 +11937,7 @@
         <v>62</v>
       </c>
       <c r="J209" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K209">
         <v>131</v>
@@ -11950,7 +11948,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C210" t="s">
         <v>667</v>
@@ -11971,10 +11969,10 @@
         <v>613362801</v>
       </c>
       <c r="I210" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="J210" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K210">
         <v>254</v>
@@ -11985,7 +11983,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C211" t="s">
         <v>670</v>
@@ -12006,10 +12004,10 @@
         <v>643141468</v>
       </c>
       <c r="I211" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J211" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K211">
         <v>441</v>
@@ -12020,7 +12018,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C212" t="s">
         <v>673</v>
@@ -12044,7 +12042,7 @@
         <v>49</v>
       </c>
       <c r="J212" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K212">
         <v>231</v>
@@ -12055,7 +12053,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C213" t="s">
         <v>676</v>
@@ -12079,7 +12077,7 @@
         <v>62</v>
       </c>
       <c r="J213" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K213">
         <v>104</v>
@@ -12090,13 +12088,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C214" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D214" t="s">
         <v>1333</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1334</v>
       </c>
       <c r="E214" t="s">
         <v>30</v>
@@ -12111,10 +12109,10 @@
         <v>633222338</v>
       </c>
       <c r="I214" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="J214" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K214">
         <v>107</v>
@@ -12125,13 +12123,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C215" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D215" t="s">
         <v>1336</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1337</v>
       </c>
       <c r="E215" t="s">
         <v>30</v>
@@ -12146,10 +12144,10 @@
         <v>699927886</v>
       </c>
       <c r="I215" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J215" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K215">
         <v>424</v>
@@ -12160,7 +12158,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C216" t="s">
         <v>681</v>
@@ -12184,7 +12182,7 @@
         <v>49</v>
       </c>
       <c r="J216" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K216">
         <v>227</v>
@@ -12195,7 +12193,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C217" t="s">
         <v>684</v>
@@ -12219,7 +12217,7 @@
         <v>62</v>
       </c>
       <c r="J217" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K217">
         <v>133</v>
@@ -12230,7 +12228,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C218" t="s">
         <v>687</v>
@@ -12254,7 +12252,7 @@
         <v>692</v>
       </c>
       <c r="J218" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K218">
         <v>343</v>
@@ -12265,7 +12263,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C219" t="s">
         <v>690</v>
@@ -12289,7 +12287,7 @@
         <v>692</v>
       </c>
       <c r="J219" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K219">
         <v>327</v>
@@ -12300,7 +12298,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C220" t="s">
         <v>694</v>
@@ -12324,7 +12322,7 @@
         <v>692</v>
       </c>
       <c r="J220" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K220">
         <v>355</v>
@@ -12335,7 +12333,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C221" t="s">
         <v>698</v>
@@ -12359,7 +12357,7 @@
         <v>62</v>
       </c>
       <c r="J221" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K221">
         <v>124</v>
@@ -12370,7 +12368,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C222" t="s">
         <v>701</v>
@@ -12391,10 +12389,10 @@
         <v>634398191</v>
       </c>
       <c r="I222" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J222" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K222">
         <v>205</v>
@@ -12405,7 +12403,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C223" t="s">
         <v>704</v>
@@ -12426,10 +12424,10 @@
         <v>623578323</v>
       </c>
       <c r="I223" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J223" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K223">
         <v>143</v>
@@ -12440,7 +12438,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C224" t="s">
         <v>707</v>
@@ -12461,10 +12459,10 @@
         <v>640500098</v>
       </c>
       <c r="I224" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J224" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K224">
         <v>403</v>
@@ -12475,7 +12473,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C225" t="s">
         <v>710</v>
@@ -12499,7 +12497,7 @@
         <v>49</v>
       </c>
       <c r="J225" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K225">
         <v>232</v>
@@ -12510,7 +12508,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C226" t="s">
         <v>713</v>
@@ -12534,7 +12532,7 @@
         <v>62</v>
       </c>
       <c r="J226" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K226">
         <v>125</v>
@@ -12545,7 +12543,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C227" t="s">
         <v>716</v>
@@ -12566,10 +12564,10 @@
         <v>617220505</v>
       </c>
       <c r="I227" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J227" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K227">
         <v>413</v>
@@ -12580,7 +12578,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C228" t="s">
         <v>719</v>
@@ -12604,7 +12602,7 @@
         <v>49</v>
       </c>
       <c r="J228" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K228">
         <v>234</v>
@@ -12615,7 +12613,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C229" t="s">
         <v>722</v>
@@ -12636,10 +12634,10 @@
         <v>640075012</v>
       </c>
       <c r="I229" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J229" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K229">
         <v>403</v>
@@ -12650,7 +12648,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C230" t="s">
         <v>725</v>
@@ -12674,7 +12672,7 @@
         <v>49</v>
       </c>
       <c r="J230" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K230">
         <v>245</v>
@@ -12685,7 +12683,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C231" t="s">
         <v>728</v>
@@ -12709,7 +12707,7 @@
         <v>62</v>
       </c>
       <c r="J231" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K231">
         <v>106</v>
@@ -12720,7 +12718,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C232" t="s">
         <v>732</v>
@@ -12744,7 +12742,7 @@
         <v>692</v>
       </c>
       <c r="J232" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K232">
         <v>354</v>
@@ -12755,7 +12753,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C233" t="s">
         <v>735</v>
@@ -12779,7 +12777,7 @@
         <v>62</v>
       </c>
       <c r="J233" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K233">
         <v>154</v>
@@ -12790,7 +12788,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C234" t="s">
         <v>738</v>
@@ -12811,10 +12809,10 @@
         <v>36305930537</v>
       </c>
       <c r="I234" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J234" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K234">
         <v>443</v>
@@ -12825,7 +12823,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C235" t="s">
         <v>18</v>
@@ -12846,10 +12844,10 @@
         <v>661199252</v>
       </c>
       <c r="I235" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J235" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K235">
         <v>441</v>
@@ -12860,7 +12858,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C236" t="s">
         <v>741</v>
@@ -12884,7 +12882,7 @@
         <v>49</v>
       </c>
       <c r="J236" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K236">
         <v>233</v>
@@ -12895,7 +12893,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C237" t="s">
         <v>744</v>
@@ -12919,7 +12917,7 @@
         <v>62</v>
       </c>
       <c r="J237" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K237">
         <v>104</v>
@@ -12930,7 +12928,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C238" t="s">
         <v>747</v>
@@ -12951,10 +12949,10 @@
         <v>624224123</v>
       </c>
       <c r="I238" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J238" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K238">
         <v>205</v>
@@ -12965,7 +12963,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C239" t="s">
         <v>750</v>
@@ -12986,10 +12984,10 @@
         <v>664199005</v>
       </c>
       <c r="I239" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J239" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K239">
         <v>451</v>
@@ -13000,7 +12998,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C240" t="s">
         <v>753</v>
@@ -13024,7 +13022,7 @@
         <v>49</v>
       </c>
       <c r="J240" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K240">
         <v>202</v>
@@ -13035,7 +13033,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C241" t="s">
         <v>756</v>
@@ -13059,7 +13057,7 @@
         <v>62</v>
       </c>
       <c r="J241" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K241">
         <v>132</v>
@@ -13070,7 +13068,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C242" t="s">
         <v>759</v>
@@ -13094,7 +13092,7 @@
         <v>62</v>
       </c>
       <c r="J242" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K242">
         <v>121</v>
@@ -13105,7 +13103,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C243" t="s">
         <v>763</v>
@@ -13126,10 +13124,10 @@
         <v>36309819806</v>
       </c>
       <c r="I243" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J243" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K243">
         <v>442</v>
@@ -13140,7 +13138,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C244" t="s">
         <v>767</v>
@@ -13164,7 +13162,7 @@
         <v>692</v>
       </c>
       <c r="J244" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K244">
         <v>354</v>
@@ -13175,7 +13173,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C245" t="s">
         <v>770</v>
@@ -13199,7 +13197,7 @@
         <v>62</v>
       </c>
       <c r="J245" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K245">
         <v>131</v>
@@ -13210,7 +13208,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C246" t="s">
         <v>773</v>
@@ -13231,10 +13229,10 @@
         <v>641160279</v>
       </c>
       <c r="I246" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J246" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K246">
         <v>254</v>
@@ -13245,7 +13243,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C247" t="s">
         <v>776</v>
@@ -13266,10 +13264,10 @@
         <v>642625266</v>
       </c>
       <c r="I247" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="J247" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K247">
         <v>143</v>
@@ -13280,7 +13278,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C248" t="s">
         <v>779</v>
@@ -13301,10 +13299,10 @@
         <v>658247212</v>
       </c>
       <c r="I248" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J248" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K248">
         <v>208</v>
@@ -13315,7 +13313,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C249" t="s">
         <v>782</v>
@@ -13339,7 +13337,7 @@
         <v>49</v>
       </c>
       <c r="J249" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K249">
         <v>226</v>
@@ -13350,7 +13348,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C250" t="s">
         <v>785</v>
@@ -13374,7 +13372,7 @@
         <v>62</v>
       </c>
       <c r="J250" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K250">
         <v>131</v>
@@ -13385,7 +13383,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C251" t="s">
         <v>788</v>
@@ -13409,7 +13407,7 @@
         <v>62</v>
       </c>
       <c r="J251" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K251">
         <v>133</v>
@@ -13420,7 +13418,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C252" t="s">
         <v>13</v>
@@ -13441,10 +13439,10 @@
         <v>643768698</v>
       </c>
       <c r="I252" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J252" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K252">
         <v>405</v>
@@ -13455,7 +13453,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C253" t="s">
         <v>791</v>
@@ -13476,10 +13474,10 @@
         <v>688120926</v>
       </c>
       <c r="I253" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J253" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K253">
         <v>441</v>
@@ -13490,7 +13488,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C254" t="s">
         <v>794</v>
@@ -13514,7 +13512,7 @@
         <v>49</v>
       </c>
       <c r="J254" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K254">
         <v>243</v>
@@ -13525,7 +13523,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C255" t="s">
         <v>797</v>
@@ -13549,7 +13547,7 @@
         <v>49</v>
       </c>
       <c r="J255" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K255">
         <v>242</v>
@@ -13560,7 +13558,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C256" t="s">
         <v>800</v>
@@ -13584,7 +13582,7 @@
         <v>49</v>
       </c>
       <c r="J256" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K256">
         <v>202</v>
@@ -13595,7 +13593,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C257" t="s">
         <v>803</v>
@@ -13616,10 +13614,10 @@
         <v>686113926</v>
       </c>
       <c r="I257" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J257" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K257">
         <v>434</v>
@@ -13630,7 +13628,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C258" t="s">
         <v>806</v>
@@ -13654,7 +13652,7 @@
         <v>42</v>
       </c>
       <c r="J258" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K258">
         <v>441</v>
@@ -13665,7 +13663,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C259" t="s">
         <v>809</v>
@@ -13689,7 +13687,7 @@
         <v>62</v>
       </c>
       <c r="J259" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K259">
         <v>103</v>
@@ -13700,7 +13698,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C260" t="s">
         <v>812</v>
@@ -13721,10 +13719,10 @@
         <v>643095609</v>
       </c>
       <c r="I260" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J260" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K260">
         <v>413</v>
@@ -13735,7 +13733,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C261" t="s">
         <v>815</v>
@@ -13759,7 +13757,7 @@
         <v>62</v>
       </c>
       <c r="J261" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K261">
         <v>133</v>
@@ -13770,10 +13768,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C262" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D262" t="s">
         <v>818</v>
@@ -13794,7 +13792,7 @@
         <v>692</v>
       </c>
       <c r="J262" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K262">
         <v>305</v>
@@ -13805,7 +13803,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C263" t="s">
         <v>820</v>
@@ -13826,7 +13824,7 @@
         <v>49</v>
       </c>
       <c r="J263" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K263">
         <v>234</v>
@@ -13837,7 +13835,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C264" t="s">
         <v>822</v>
@@ -13858,10 +13856,10 @@
         <v>688159821</v>
       </c>
       <c r="I264" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J264" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K264">
         <v>401</v>
@@ -13872,7 +13870,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C265" t="s">
         <v>825</v>
@@ -13896,7 +13894,7 @@
         <v>62</v>
       </c>
       <c r="J265" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K265">
         <v>102</v>
@@ -13907,7 +13905,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C266" t="s">
         <v>828</v>
@@ -13931,7 +13929,7 @@
         <v>49</v>
       </c>
       <c r="J266" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K266">
         <v>230</v>
@@ -13942,7 +13940,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C267" t="s">
         <v>831</v>
@@ -13966,7 +13964,7 @@
         <v>692</v>
       </c>
       <c r="J267" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K267">
         <v>304</v>
@@ -13977,7 +13975,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C268" t="s">
         <v>834</v>
@@ -13998,10 +13996,10 @@
         <v>631922930</v>
       </c>
       <c r="I268" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J268" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K268">
         <v>451</v>
@@ -14012,7 +14010,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C269" t="s">
         <v>837</v>
@@ -14033,10 +14031,10 @@
         <v>673132725</v>
       </c>
       <c r="I269" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J269" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K269">
         <v>224</v>
@@ -14047,7 +14045,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C270" t="s">
         <v>19</v>
@@ -14068,10 +14066,10 @@
         <v>621023351</v>
       </c>
       <c r="I270" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J270" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K270">
         <v>403</v>
@@ -14082,10 +14080,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C271" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D271" t="s">
         <v>840</v>
@@ -14094,7 +14092,7 @@
         <v>31</v>
       </c>
       <c r="F271" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G271">
         <v>2004</v>
@@ -14106,7 +14104,7 @@
         <v>692</v>
       </c>
       <c r="J271" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K271">
         <v>332</v>
@@ -14117,7 +14115,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C272" t="s">
         <v>841</v>
@@ -14141,7 +14139,7 @@
         <v>62</v>
       </c>
       <c r="J272" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K272">
         <v>126</v>
@@ -14152,7 +14150,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C273" t="s">
         <v>844</v>
@@ -14173,10 +14171,10 @@
         <v>36309029501</v>
       </c>
       <c r="I273" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J273" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K273">
         <v>408</v>
@@ -14187,7 +14185,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C274" t="s">
         <v>847</v>
@@ -14211,7 +14209,7 @@
         <v>62</v>
       </c>
       <c r="J274" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K274">
         <v>103</v>
@@ -14222,7 +14220,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C275" t="s">
         <v>850</v>
@@ -14246,7 +14244,7 @@
         <v>692</v>
       </c>
       <c r="J275" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K275">
         <v>334</v>
@@ -14257,7 +14255,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C276" t="s">
         <v>853</v>
@@ -14281,7 +14279,7 @@
         <v>62</v>
       </c>
       <c r="J276" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K276">
         <v>154</v>
@@ -14292,7 +14290,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C277" t="s">
         <v>856</v>
@@ -14313,10 +14311,10 @@
         <v>658338528</v>
       </c>
       <c r="I277" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J277" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K277">
         <v>428</v>
@@ -14327,10 +14325,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C278" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D278" t="s">
         <v>859</v>
@@ -14351,7 +14349,7 @@
         <v>49</v>
       </c>
       <c r="J278" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K278">
         <v>201</v>
@@ -14362,7 +14360,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C279" t="s">
         <v>861</v>
@@ -14383,10 +14381,10 @@
         <v>688139416</v>
       </c>
       <c r="I279" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="J279" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K279">
         <v>413</v>
@@ -14397,7 +14395,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C280" t="s">
         <v>864</v>
@@ -14418,10 +14416,10 @@
         <v>653615065</v>
       </c>
       <c r="I280" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J280" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K280">
         <v>454</v>
@@ -14432,7 +14430,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C281" t="s">
         <v>867</v>
@@ -14456,7 +14454,7 @@
         <v>62</v>
       </c>
       <c r="J281" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K281">
         <v>125</v>
@@ -14467,7 +14465,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C282" t="s">
         <v>870</v>
@@ -14491,7 +14489,7 @@
         <v>49</v>
       </c>
       <c r="J282" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K282">
         <v>202</v>
@@ -14502,7 +14500,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C283" t="s">
         <v>16</v>
@@ -14523,10 +14521,10 @@
         <v>653888690</v>
       </c>
       <c r="I283" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J283" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K283">
         <v>402</v>
@@ -14537,7 +14535,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C284" t="s">
         <v>873</v>
@@ -14561,7 +14559,7 @@
         <v>692</v>
       </c>
       <c r="J284" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K284">
         <v>334</v>
@@ -14572,13 +14570,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C285" t="s">
         <v>876</v>
       </c>
       <c r="D285" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E285" t="s">
         <v>31</v>
@@ -14596,7 +14594,7 @@
         <v>692</v>
       </c>
       <c r="J285" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K285">
         <v>333</v>
@@ -14607,7 +14605,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C286" t="s">
         <v>878</v>
@@ -14631,7 +14629,7 @@
         <v>62</v>
       </c>
       <c r="J286" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K286">
         <v>102</v>
@@ -14642,7 +14640,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C287" t="s">
         <v>881</v>
@@ -14663,10 +14661,10 @@
         <v>722315420</v>
       </c>
       <c r="I287" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J287" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K287">
         <v>452</v>
@@ -14677,7 +14675,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C288" t="s">
         <v>884</v>
@@ -14701,7 +14699,7 @@
         <v>62</v>
       </c>
       <c r="J288" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K288">
         <v>151</v>
@@ -14712,7 +14710,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C289" t="s">
         <v>887</v>
@@ -14736,7 +14734,7 @@
         <v>62</v>
       </c>
       <c r="J289" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K289">
         <v>128</v>
@@ -14747,10 +14745,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C290" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D290" t="s">
         <v>890</v>
@@ -14768,10 +14766,10 @@
         <v>36308839239</v>
       </c>
       <c r="I290" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J290" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K290">
         <v>408</v>
@@ -14782,7 +14780,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C291" t="s">
         <v>893</v>
@@ -14806,7 +14804,7 @@
         <v>692</v>
       </c>
       <c r="J291" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K291">
         <v>330</v>
@@ -14817,7 +14815,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C292" t="s">
         <v>896</v>
@@ -14838,10 +14836,10 @@
         <v>640728214</v>
       </c>
       <c r="I292" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J292" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K292">
         <v>428</v>
@@ -14852,7 +14850,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C293" t="s">
         <v>899</v>
@@ -14876,7 +14874,7 @@
         <v>692</v>
       </c>
       <c r="J293" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K293">
         <v>333</v>
@@ -14887,7 +14885,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C294" t="s">
         <v>902</v>
@@ -14911,7 +14909,7 @@
         <v>49</v>
       </c>
       <c r="J294" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K294">
         <v>227</v>
@@ -14922,7 +14920,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C295" t="s">
         <v>905</v>
@@ -14946,7 +14944,7 @@
         <v>692</v>
       </c>
       <c r="J295" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K295">
         <v>301</v>
@@ -14957,7 +14955,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C296" t="s">
         <v>908</v>
@@ -14981,7 +14979,7 @@
         <v>692</v>
       </c>
       <c r="J296" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K296">
         <v>301</v>
@@ -14992,7 +14990,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C297" t="s">
         <v>911</v>
@@ -15016,7 +15014,7 @@
         <v>62</v>
       </c>
       <c r="J297" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K297">
         <v>127</v>
@@ -15027,7 +15025,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C298" t="s">
         <v>913</v>
@@ -15051,7 +15049,7 @@
         <v>62</v>
       </c>
       <c r="J298" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K298">
         <v>151</v>
@@ -15062,7 +15060,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C299" t="s">
         <v>916</v>
@@ -15083,10 +15081,10 @@
         <v>36702935151</v>
       </c>
       <c r="I299" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J299" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K299">
         <v>443</v>
@@ -15097,7 +15095,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C300" t="s">
         <v>919</v>
@@ -15118,10 +15116,10 @@
         <v>618295977</v>
       </c>
       <c r="I300" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J300" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K300">
         <v>401</v>
@@ -15132,7 +15130,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C301" t="s">
         <v>922</v>
@@ -15156,7 +15154,7 @@
         <v>62</v>
       </c>
       <c r="J301" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K301">
         <v>151</v>
@@ -15167,7 +15165,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C302" t="s">
         <v>925</v>
@@ -15191,7 +15189,7 @@
         <v>62</v>
       </c>
       <c r="J302" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K302">
         <v>123</v>
@@ -15202,7 +15200,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C303" t="s">
         <v>929</v>
@@ -15226,7 +15224,7 @@
         <v>49</v>
       </c>
       <c r="J303" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K303">
         <v>244</v>
@@ -15237,7 +15235,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C304" t="s">
         <v>932</v>
@@ -15258,10 +15256,10 @@
         <v>690966796</v>
       </c>
       <c r="I304" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J304" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K304">
         <v>402</v>
@@ -15272,7 +15270,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C305" t="s">
         <v>935</v>
@@ -15296,7 +15294,7 @@
         <v>692</v>
       </c>
       <c r="J305" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K305">
         <v>334</v>
@@ -15307,7 +15305,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C306" t="s">
         <v>938</v>
@@ -15331,7 +15329,7 @@
         <v>49</v>
       </c>
       <c r="J306" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K306">
         <v>234</v>
@@ -15342,7 +15340,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C307" t="s">
         <v>941</v>
@@ -15366,7 +15364,7 @@
         <v>62</v>
       </c>
       <c r="J307" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K307">
         <v>132</v>
@@ -15377,7 +15375,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C308" t="s">
         <v>944</v>
@@ -15401,7 +15399,7 @@
         <v>49</v>
       </c>
       <c r="J308" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K308">
         <v>228</v>
@@ -15412,7 +15410,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C309" t="s">
         <v>947</v>
@@ -15433,10 +15431,10 @@
         <v>615522839</v>
       </c>
       <c r="I309" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J309" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K309">
         <v>401</v>
@@ -15447,7 +15445,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C310" t="s">
         <v>950</v>
@@ -15471,7 +15469,7 @@
         <v>62</v>
       </c>
       <c r="J310" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K310">
         <v>128</v>
@@ -15482,7 +15480,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C311" t="s">
         <v>953</v>
@@ -15506,7 +15504,7 @@
         <v>62</v>
       </c>
       <c r="J311" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K311">
         <v>128</v>
@@ -15517,7 +15515,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C312" t="s">
         <v>956</v>
@@ -15538,10 +15536,10 @@
         <v>604885367</v>
       </c>
       <c r="I312" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J312" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K312">
         <v>107</v>
@@ -15552,7 +15550,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C313" t="s">
         <v>959</v>
@@ -15576,7 +15574,7 @@
         <v>692</v>
       </c>
       <c r="J313" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K313">
         <v>332</v>
@@ -15587,7 +15585,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C314" t="s">
         <v>962</v>
@@ -15611,7 +15609,7 @@
         <v>62</v>
       </c>
       <c r="J314" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K314">
         <v>125</v>
@@ -15622,7 +15620,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C315" t="s">
         <v>966</v>
@@ -15643,10 +15641,10 @@
         <v>688030117</v>
       </c>
       <c r="I315" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J315" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K315">
         <v>107</v>
@@ -15657,13 +15655,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C316" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D316" t="s">
         <v>1345</v>
-      </c>
-      <c r="D316" t="s">
-        <v>1346</v>
       </c>
       <c r="E316" t="s">
         <v>30</v>
@@ -15675,10 +15673,10 @@
         <v>2004</v>
       </c>
       <c r="I316" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J316" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K316">
         <v>402</v>
@@ -15689,7 +15687,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C317" t="s">
         <v>970</v>
@@ -15713,7 +15711,7 @@
         <v>49</v>
       </c>
       <c r="J317" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K317">
         <v>232</v>
@@ -15724,7 +15722,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C318" t="s">
         <v>973</v>
@@ -15748,7 +15746,7 @@
         <v>62</v>
       </c>
       <c r="J318" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K318">
         <v>103</v>
@@ -15759,7 +15757,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C319" t="s">
         <v>976</v>
@@ -15780,10 +15778,10 @@
         <v>655961294</v>
       </c>
       <c r="I319" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J319" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K319">
         <v>255</v>
@@ -15794,7 +15792,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C320" t="s">
         <v>979</v>
@@ -15818,7 +15816,7 @@
         <v>49</v>
       </c>
       <c r="J320" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K320">
         <v>228</v>
@@ -15829,7 +15827,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C321" t="s">
         <v>982</v>
@@ -15853,7 +15851,7 @@
         <v>62</v>
       </c>
       <c r="J321" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K321">
         <v>151</v>
@@ -15864,7 +15862,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C322" t="s">
         <v>985</v>
@@ -15888,7 +15886,7 @@
         <v>49</v>
       </c>
       <c r="J322" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K322">
         <v>228</v>
@@ -15899,7 +15897,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C323" t="s">
         <v>988</v>
@@ -15923,7 +15921,7 @@
         <v>62</v>
       </c>
       <c r="J323" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K323">
         <v>126</v>
@@ -15934,7 +15932,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C324" t="s">
         <v>991</v>
@@ -15955,10 +15953,10 @@
         <v>688575383</v>
       </c>
       <c r="I324" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J324" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K324">
         <v>424</v>
@@ -15969,13 +15967,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C325" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D325" t="s">
         <v>1347</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1348</v>
       </c>
       <c r="E325" t="s">
         <v>31</v>
@@ -15990,10 +15988,10 @@
         <v>635301173</v>
       </c>
       <c r="I325" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="J325" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K325">
         <v>254</v>
@@ -16004,7 +16002,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C326" t="s">
         <v>995</v>
@@ -16028,7 +16026,7 @@
         <v>692</v>
       </c>
       <c r="J326" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K326">
         <v>333</v>
@@ -16039,7 +16037,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C327" t="s">
         <v>998</v>
@@ -16063,7 +16061,7 @@
         <v>49</v>
       </c>
       <c r="J327" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K327">
         <v>201</v>
@@ -16074,7 +16072,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C328" t="s">
         <v>1001</v>
@@ -16095,10 +16093,10 @@
         <v>693703586</v>
       </c>
       <c r="I328" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J328" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K328">
         <v>224</v>
@@ -16109,7 +16107,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C329" t="s">
         <v>1004</v>
@@ -16133,7 +16131,7 @@
         <v>49</v>
       </c>
       <c r="J329" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K329">
         <v>242</v>
@@ -16144,7 +16142,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C330" t="s">
         <v>1007</v>
@@ -16168,7 +16166,7 @@
         <v>62</v>
       </c>
       <c r="J330" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K330">
         <v>102</v>
@@ -16179,7 +16177,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C331" t="s">
         <v>1010</v>
@@ -16200,10 +16198,10 @@
         <v>640210261</v>
       </c>
       <c r="I331" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J331" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K331">
         <v>454</v>
@@ -16214,7 +16212,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C332" t="s">
         <v>1013</v>
@@ -16238,7 +16236,7 @@
         <v>692</v>
       </c>
       <c r="J332" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K332">
         <v>328</v>
@@ -16249,7 +16247,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C333" t="s">
         <v>1016</v>
@@ -16273,7 +16271,7 @@
         <v>62</v>
       </c>
       <c r="J333" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K333">
         <v>101</v>
@@ -16284,7 +16282,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C334" t="s">
         <v>1019</v>
@@ -16308,7 +16306,7 @@
         <v>62</v>
       </c>
       <c r="J334" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K334">
         <v>144</v>
@@ -16319,7 +16317,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C335" t="s">
         <v>1022</v>
@@ -16343,7 +16341,7 @@
         <v>49</v>
       </c>
       <c r="J335" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K335">
         <v>242</v>
@@ -16354,7 +16352,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C336" t="s">
         <v>1025</v>
@@ -16375,10 +16373,10 @@
         <v>648657347</v>
       </c>
       <c r="I336" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J336" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K336">
         <v>451</v>
@@ -16389,7 +16387,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C337" t="s">
         <v>1028</v>
@@ -16413,7 +16411,7 @@
         <v>692</v>
       </c>
       <c r="J337" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K337">
         <v>331</v>
@@ -16424,7 +16422,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C338" t="s">
         <v>1031</v>
@@ -16448,7 +16446,7 @@
         <v>49</v>
       </c>
       <c r="J338" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K338">
         <v>230</v>
@@ -16459,7 +16457,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C339" t="s">
         <v>1034</v>
@@ -16483,7 +16481,7 @@
         <v>692</v>
       </c>
       <c r="J339" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K339">
         <v>303</v>
@@ -16494,7 +16492,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C340" t="s">
         <v>1037</v>
@@ -16518,7 +16516,7 @@
         <v>692</v>
       </c>
       <c r="J340" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K340">
         <v>331</v>
@@ -16529,7 +16527,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C341" t="s">
         <v>1041</v>
@@ -16553,7 +16551,7 @@
         <v>62</v>
       </c>
       <c r="J341" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K341">
         <v>144</v>
@@ -16564,7 +16562,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C342" t="s">
         <v>1044</v>
@@ -16588,7 +16586,7 @@
         <v>62</v>
       </c>
       <c r="J342" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K342">
         <v>101</v>
@@ -16599,10 +16597,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C343" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D343" t="s">
         <v>1047</v>
@@ -16620,10 +16618,10 @@
         <v>36702313974</v>
       </c>
       <c r="I343" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J343" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K343">
         <v>443</v>
@@ -16634,7 +16632,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C344" t="s">
         <v>1049</v>
@@ -16655,10 +16653,10 @@
         <v>648515264</v>
       </c>
       <c r="I344" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J344" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K344">
         <v>224</v>
@@ -16669,7 +16667,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C345" t="s">
         <v>1052</v>
@@ -16693,7 +16691,7 @@
         <v>62</v>
       </c>
       <c r="J345" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K345">
         <v>101</v>
@@ -16704,7 +16702,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C346" t="s">
         <v>1055</v>
@@ -16725,10 +16723,10 @@
         <v>36709332049</v>
       </c>
       <c r="I346" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J346" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K346">
         <v>408</v>
@@ -16739,7 +16737,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C347" t="s">
         <v>1058</v>
@@ -16763,7 +16761,7 @@
         <v>62</v>
       </c>
       <c r="J347" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K347">
         <v>127</v>
@@ -16774,7 +16772,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C348" t="s">
         <v>1061</v>
@@ -16795,10 +16793,10 @@
         <v>645879034</v>
       </c>
       <c r="I348" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J348" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K348">
         <v>251</v>
@@ -16809,7 +16807,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C349" t="s">
         <v>1064</v>
@@ -16833,7 +16831,7 @@
         <v>692</v>
       </c>
       <c r="J349" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K349">
         <v>332</v>
@@ -16844,7 +16842,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C350" t="s">
         <v>1067</v>
@@ -16868,7 +16866,7 @@
         <v>692</v>
       </c>
       <c r="J350" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K350">
         <v>330</v>
@@ -16879,10 +16877,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C351" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D351" t="s">
         <v>120</v>
@@ -16900,10 +16898,10 @@
         <v>684122628</v>
       </c>
       <c r="I351" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J351" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K351">
         <v>241</v>
@@ -16914,7 +16912,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C352" t="s">
         <v>1070</v>
@@ -16938,7 +16936,7 @@
         <v>692</v>
       </c>
       <c r="J352" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K352">
         <v>327</v>
@@ -16949,7 +16947,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C353" t="s">
         <v>1073</v>
@@ -16973,7 +16971,7 @@
         <v>692</v>
       </c>
       <c r="J353" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K353">
         <v>327</v>
@@ -16984,7 +16982,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C354" t="s">
         <v>1076</v>
@@ -17008,7 +17006,7 @@
         <v>49</v>
       </c>
       <c r="J354" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K354">
         <v>201</v>
@@ -17019,7 +17017,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C355" t="s">
         <v>1079</v>
@@ -17043,7 +17041,7 @@
         <v>62</v>
       </c>
       <c r="J355" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K355">
         <v>154</v>
@@ -17054,7 +17052,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C356" t="s">
         <v>1082</v>
@@ -17075,10 +17073,10 @@
         <v>631512846</v>
       </c>
       <c r="I356" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="J356" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K356">
         <v>255</v>
@@ -17089,7 +17087,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C357" t="s">
         <v>1085</v>
@@ -17110,10 +17108,10 @@
         <v>642373465</v>
       </c>
       <c r="I357" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J357" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K357">
         <v>428</v>
@@ -17124,7 +17122,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C358" t="s">
         <v>1088</v>
@@ -17145,10 +17143,10 @@
         <v>642321288</v>
       </c>
       <c r="I358" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J358" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K358">
         <v>107</v>
@@ -17159,7 +17157,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C359" t="s">
         <v>1091</v>
@@ -17183,7 +17181,7 @@
         <v>692</v>
       </c>
       <c r="J359" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K359">
         <v>331</v>
@@ -17194,7 +17192,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C360" t="s">
         <v>1094</v>
@@ -17218,7 +17216,7 @@
         <v>62</v>
       </c>
       <c r="J360" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K360">
         <v>144</v>
@@ -17229,7 +17227,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C361" t="s">
         <v>1097</v>
@@ -17253,7 +17251,7 @@
         <v>692</v>
       </c>
       <c r="J361" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K361">
         <v>329</v>
@@ -17264,7 +17262,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>1101</v>
@@ -17288,7 +17286,7 @@
         <v>1104</v>
       </c>
       <c r="J362" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K362">
         <v>425</v>
@@ -17299,7 +17297,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C363" t="s">
         <v>1106</v>
@@ -17323,7 +17321,7 @@
         <v>62</v>
       </c>
       <c r="J363" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K363">
         <v>127</v>
@@ -17334,7 +17332,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C364" t="s">
         <v>1109</v>
@@ -17355,10 +17353,10 @@
         <v>605058258</v>
       </c>
       <c r="I364" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J364" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K364">
         <v>433</v>
@@ -17369,7 +17367,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C365" t="s">
         <v>1112</v>
@@ -17393,7 +17391,7 @@
         <v>692</v>
       </c>
       <c r="J365" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K365">
         <v>328</v>
@@ -17404,7 +17402,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C366" t="s">
         <v>1115</v>
@@ -17425,10 +17423,10 @@
         <v>698965081</v>
       </c>
       <c r="I366" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J366" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K366">
         <v>143</v>
@@ -17439,7 +17437,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C367" t="s">
         <v>1118</v>
@@ -17460,10 +17458,10 @@
         <v>688556240</v>
       </c>
       <c r="I367" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J367" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K367">
         <v>433</v>
@@ -17474,7 +17472,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C368" t="s">
         <v>1121</v>
@@ -17498,7 +17496,7 @@
         <v>692</v>
       </c>
       <c r="J368" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K368">
         <v>331</v>
@@ -17509,7 +17507,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C369" t="s">
         <v>1124</v>
@@ -17533,7 +17531,7 @@
         <v>692</v>
       </c>
       <c r="J369" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K369">
         <v>334</v>
@@ -17544,7 +17542,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C370" t="s">
         <v>1127</v>
@@ -17568,7 +17566,7 @@
         <v>692</v>
       </c>
       <c r="J370" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K370">
         <v>328</v>
@@ -17579,7 +17577,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C371" t="s">
         <v>1130</v>
@@ -17603,7 +17601,7 @@
         <v>49</v>
       </c>
       <c r="J371" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K371">
         <v>201</v>
@@ -17614,7 +17612,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C372" t="s">
         <v>1133</v>
@@ -17632,10 +17630,10 @@
         <v>1995</v>
       </c>
       <c r="I372" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J372" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K372">
         <v>428</v>
@@ -17646,7 +17644,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C373" t="s">
         <v>1136</v>
@@ -17667,10 +17665,10 @@
         <v>643039495</v>
       </c>
       <c r="I373" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J373" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K373">
         <v>421</v>
@@ -17681,7 +17679,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C374" t="s">
         <v>1139</v>
@@ -17702,10 +17700,10 @@
         <v>643039374</v>
       </c>
       <c r="I374" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J374" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K374">
         <v>421</v>
@@ -17716,7 +17714,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C375" t="s">
         <v>1142</v>
@@ -17740,7 +17738,7 @@
         <v>42</v>
       </c>
       <c r="J375" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K375">
         <v>344</v>
@@ -17751,7 +17749,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C376" t="s">
         <v>1146</v>
@@ -17775,7 +17773,7 @@
         <v>42</v>
       </c>
       <c r="J376" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K376">
         <v>344</v>
@@ -17810,7 +17808,7 @@
         <v>42</v>
       </c>
       <c r="J377" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K377">
         <v>455</v>
@@ -17845,7 +17843,7 @@
         <v>42</v>
       </c>
       <c r="J378" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K378">
         <v>422</v>
@@ -17877,7 +17875,7 @@
         <v>42</v>
       </c>
       <c r="J379" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K379">
         <v>422</v>
@@ -17912,7 +17910,7 @@
         <v>42</v>
       </c>
       <c r="J380" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K380">
         <v>432</v>
@@ -17923,7 +17921,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C381" t="s">
         <v>1167</v>
@@ -17947,7 +17945,7 @@
         <v>42</v>
       </c>
       <c r="J381" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K381">
         <v>423</v>
@@ -17958,7 +17956,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C382" t="s">
         <v>1171</v>
@@ -17982,7 +17980,7 @@
         <v>42</v>
       </c>
       <c r="J382" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K382">
         <v>423</v>
@@ -17993,7 +17991,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>1284</v>
+        <v>1394</v>
       </c>
       <c r="C383" t="s">
         <v>1175</v>
@@ -18017,7 +18015,7 @@
         <v>42</v>
       </c>
       <c r="J383" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K383">
         <v>216</v>
@@ -18028,7 +18026,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>1284</v>
+        <v>1394</v>
       </c>
       <c r="C384" t="s">
         <v>1179</v>
@@ -18052,7 +18050,7 @@
         <v>42</v>
       </c>
       <c r="J384" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K384">
         <v>216</v>
@@ -18063,7 +18061,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>1365</v>
+        <v>1394</v>
       </c>
       <c r="C385" t="s">
         <v>1183</v>
@@ -18087,7 +18085,7 @@
         <v>42</v>
       </c>
       <c r="J385" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K385">
         <v>216</v>
@@ -18122,7 +18120,7 @@
         <v>42</v>
       </c>
       <c r="J386" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K386">
         <v>314</v>
@@ -18157,7 +18155,7 @@
         <v>42</v>
       </c>
       <c r="J387" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K387">
         <v>313</v>
@@ -18192,7 +18190,7 @@
         <v>42</v>
       </c>
       <c r="J388" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K388">
         <v>313</v>
@@ -18227,7 +18225,7 @@
         <v>42</v>
       </c>
       <c r="J389" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K389">
         <v>314</v>
@@ -18262,7 +18260,7 @@
         <v>42</v>
       </c>
       <c r="J390" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K390">
         <v>315</v>
@@ -18273,7 +18271,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>1284</v>
+        <v>1394</v>
       </c>
       <c r="C391" t="s">
         <v>1199</v>
@@ -18297,7 +18295,7 @@
         <v>42</v>
       </c>
       <c r="J391" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K391">
         <v>430</v>
@@ -18308,7 +18306,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>1284</v>
+        <v>1394</v>
       </c>
       <c r="C392" t="s">
         <v>1203</v>
@@ -18332,7 +18330,7 @@
         <v>42</v>
       </c>
       <c r="J392" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K392">
         <v>211</v>
@@ -18343,7 +18341,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C393" t="s">
         <v>1207</v>
@@ -18367,7 +18365,7 @@
         <v>42</v>
       </c>
       <c r="J393" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K393">
         <v>211</v>
@@ -18378,7 +18376,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C394" t="s">
         <v>1211</v>
@@ -18402,7 +18400,7 @@
         <v>42</v>
       </c>
       <c r="J394" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K394">
         <v>211</v>
@@ -18413,7 +18411,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C395" t="s">
         <v>1215</v>
@@ -18437,7 +18435,7 @@
         <v>42</v>
       </c>
       <c r="J395" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K395">
         <v>341</v>
@@ -18448,7 +18446,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>1284</v>
+        <v>1394</v>
       </c>
       <c r="C396" t="s">
         <v>1219</v>
@@ -18472,7 +18470,7 @@
         <v>42</v>
       </c>
       <c r="J396" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K396">
         <v>341</v>
@@ -18483,7 +18481,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C397" t="s">
         <v>1223</v>
@@ -18507,7 +18505,7 @@
         <v>42</v>
       </c>
       <c r="J397" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K397">
         <v>213</v>
@@ -18518,7 +18516,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C398" t="s">
         <v>1227</v>
@@ -18542,7 +18540,7 @@
         <v>42</v>
       </c>
       <c r="J398" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K398">
         <v>213</v>
@@ -18553,7 +18551,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C399" t="s">
         <v>1231</v>
@@ -18577,7 +18575,7 @@
         <v>42</v>
       </c>
       <c r="J399" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K399">
         <v>213</v>
@@ -18588,7 +18586,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C400" t="s">
         <v>1235</v>
@@ -18609,7 +18607,7 @@
         <v>692</v>
       </c>
       <c r="J400" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K400">
         <v>308</v>
@@ -18620,10 +18618,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C401" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D401" t="s">
         <v>1238</v>
@@ -18641,7 +18639,7 @@
         <v>692</v>
       </c>
       <c r="J401" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K401">
         <v>308</v>
@@ -18676,7 +18674,7 @@
         <v>692</v>
       </c>
       <c r="J402" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K402">
         <v>342</v>
@@ -18687,13 +18685,13 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C403" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D403" t="s">
         <v>1352</v>
-      </c>
-      <c r="D403" t="s">
-        <v>1353</v>
       </c>
       <c r="E403" t="s">
         <v>30</v>
@@ -18711,7 +18709,7 @@
         <v>692</v>
       </c>
       <c r="J403" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K403">
         <v>329</v>
@@ -18722,10 +18720,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C404" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D404" t="s">
         <v>1245</v>
@@ -18746,7 +18744,7 @@
         <v>692</v>
       </c>
       <c r="J404" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K404">
         <v>308</v>
@@ -18757,7 +18755,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C405" t="s">
         <v>1248</v>
@@ -18781,7 +18779,7 @@
         <v>49</v>
       </c>
       <c r="J405" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K405">
         <v>214</v>
@@ -18792,7 +18790,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C406" t="s">
         <v>1251</v>
@@ -18816,7 +18814,7 @@
         <v>49</v>
       </c>
       <c r="J406" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K406">
         <v>214</v>
@@ -18827,7 +18825,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C407" t="s">
         <v>1254</v>
@@ -18851,7 +18849,7 @@
         <v>49</v>
       </c>
       <c r="J407" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K407">
         <v>214</v>
@@ -18862,7 +18860,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C408" t="s">
         <v>1257</v>
@@ -18886,7 +18884,7 @@
         <v>49</v>
       </c>
       <c r="J408" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K408">
         <v>215</v>
@@ -18897,7 +18895,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C409" t="s">
         <v>1260</v>
@@ -18921,7 +18919,7 @@
         <v>49</v>
       </c>
       <c r="J409" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K409">
         <v>215</v>
@@ -18932,10 +18930,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C410" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D410" t="s">
         <v>1263</v>
@@ -18956,7 +18954,7 @@
         <v>49</v>
       </c>
       <c r="J410" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K410">
         <v>245</v>
@@ -18967,7 +18965,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C411" t="s">
         <v>1265</v>
@@ -18991,7 +18989,7 @@
         <v>49</v>
       </c>
       <c r="J411" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K411">
         <v>245</v>
@@ -19002,7 +19000,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C412" t="s">
         <v>1268</v>
@@ -19026,7 +19024,7 @@
         <v>49</v>
       </c>
       <c r="J412" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K412">
         <v>246</v>
@@ -19037,7 +19035,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C413" t="s">
         <v>1271</v>
@@ -19061,7 +19059,7 @@
         <v>49</v>
       </c>
       <c r="J413" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K413">
         <v>246</v>
@@ -19072,7 +19070,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C414" t="s">
         <v>1274</v>
@@ -19096,7 +19094,7 @@
         <v>49</v>
       </c>
       <c r="J414" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K414">
         <v>245</v>
@@ -19107,7 +19105,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C415" t="s">
         <v>1277</v>
@@ -19131,7 +19129,7 @@
         <v>62</v>
       </c>
       <c r="J415" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K415">
         <v>130</v>
@@ -19142,7 +19140,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>1284</v>
+        <v>1397</v>
       </c>
       <c r="C416" t="s">
         <v>1281</v>
@@ -19154,7 +19152,7 @@
         <v>31</v>
       </c>
       <c r="F416" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G416" t="s">
         <v>1283</v>
@@ -19166,7 +19164,7 @@
         <v>62</v>
       </c>
       <c r="J416" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K416">
         <v>346</v>
@@ -19177,22 +19175,22 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C417" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D417" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E417" t="s">
+        <v>30</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G417" s="2" t="s">
         <v>1286</v>
-      </c>
-      <c r="E417" t="s">
-        <v>30</v>
-      </c>
-      <c r="F417" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G417" s="2" t="s">
-        <v>1287</v>
       </c>
       <c r="H417">
         <v>638246213</v>
@@ -19201,7 +19199,7 @@
         <v>62</v>
       </c>
       <c r="J417" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K417">
         <v>345</v>
@@ -19212,22 +19210,22 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C418" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D418" t="s">
         <v>1289</v>
       </c>
-      <c r="D418" t="s">
+      <c r="E418" t="s">
+        <v>31</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G418" s="2" t="s">
         <v>1290</v>
-      </c>
-      <c r="E418" t="s">
-        <v>31</v>
-      </c>
-      <c r="F418" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G418" s="2" t="s">
-        <v>1291</v>
       </c>
       <c r="H418">
         <v>691300193</v>
@@ -19236,7 +19234,7 @@
         <v>62</v>
       </c>
       <c r="J418" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K418">
         <v>121</v>
@@ -19247,22 +19245,22 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C419" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D419" t="s">
         <v>1293</v>
       </c>
-      <c r="D419" t="s">
+      <c r="E419" t="s">
+        <v>30</v>
+      </c>
+      <c r="F419" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G419" s="2" t="s">
         <v>1294</v>
-      </c>
-      <c r="E419" t="s">
-        <v>30</v>
-      </c>
-      <c r="F419" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G419" s="2" t="s">
-        <v>1295</v>
       </c>
       <c r="H419">
         <v>688003205</v>
@@ -19271,7 +19269,7 @@
         <v>62</v>
       </c>
       <c r="J419" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K419">
         <v>122</v>
@@ -19282,22 +19280,22 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C420" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D420" t="s">
         <v>1297</v>
       </c>
-      <c r="D420" t="s">
+      <c r="E420" t="s">
+        <v>31</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G420" s="2" t="s">
         <v>1298</v>
-      </c>
-      <c r="E420" t="s">
-        <v>31</v>
-      </c>
-      <c r="F420" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G420" s="2" t="s">
-        <v>1299</v>
       </c>
       <c r="H420">
         <v>698292444</v>
@@ -19306,7 +19304,7 @@
         <v>62</v>
       </c>
       <c r="J420" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K420">
         <v>122</v>
@@ -19317,28 +19315,28 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C421" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D421" t="s">
         <v>1301</v>
       </c>
-      <c r="D421" t="s">
+      <c r="E421" t="s">
+        <v>31</v>
+      </c>
+      <c r="F421" t="s">
         <v>1302</v>
       </c>
-      <c r="E421" t="s">
-        <v>31</v>
-      </c>
-      <c r="F421" t="s">
-        <v>1303</v>
-      </c>
       <c r="G421" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I421" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J421" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K421">
         <v>241</v>
@@ -19349,28 +19347,28 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C422" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E422" t="s">
+        <v>31</v>
+      </c>
+      <c r="F422" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G422" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="D422" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E422" t="s">
-        <v>31</v>
-      </c>
-      <c r="F422" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G422" s="2" t="s">
-        <v>1359</v>
-      </c>
       <c r="I422" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J422" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K422">
         <v>241</v>
@@ -19381,31 +19379,31 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C423" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D423" t="s">
         <v>1306</v>
       </c>
-      <c r="D423" t="s">
+      <c r="E423" t="s">
+        <v>31</v>
+      </c>
+      <c r="F423" t="s">
         <v>1307</v>
       </c>
-      <c r="E423" t="s">
-        <v>31</v>
-      </c>
-      <c r="F423" t="s">
-        <v>1308</v>
-      </c>
       <c r="G423" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H423">
         <v>36706395947</v>
       </c>
       <c r="I423" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J423" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K423">
         <v>443</v>

--- a/data/夏令营资料库.xlsx
+++ b/data/夏令营资料库.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuewe\Downloads\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57566FB-693B-4048-B927-06A41A57B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED8803B-E935-491D-8CF3-96E68865F29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="1408">
   <si>
     <t>顺序</t>
   </si>
@@ -4239,6 +4239,39 @@
   <si>
     <t>同工队</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲员</t>
+  </si>
+  <si>
+    <t>沈利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHEN LI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUIZHEN HUANG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y2022234L</t>
+  </si>
+  <si>
+    <t>EG6260492</t>
   </si>
 </sst>
 </file>
@@ -4249,7 +4282,7 @@
     <numFmt numFmtId="176" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="177" formatCode="d\-m\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4267,6 +4300,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -4308,7 +4354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4317,11 +4363,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEE0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4621,19 +4677,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K423"/>
+  <dimension ref="A1:K424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="E428" sqref="E428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6079,23 +6136,23 @@
       <c r="B42" t="s">
         <v>1364</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" t="s">
-        <v>165</v>
-      </c>
-      <c r="G42">
+      <c r="E42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="6">
         <v>2010</v>
       </c>
-      <c r="H42">
-        <v>680900557</v>
+      <c r="H42" s="6">
+        <v>636862028</v>
       </c>
       <c r="I42" t="s">
         <v>1315</v>
@@ -6114,23 +6171,23 @@
       <c r="B43" t="s">
         <v>1364</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" t="s">
-        <v>170</v>
-      </c>
-      <c r="G43">
+      <c r="E43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="6">
         <v>2009</v>
       </c>
-      <c r="H43">
-        <v>636862028</v>
+      <c r="H43" s="6">
+        <v>657929517</v>
       </c>
       <c r="I43" t="s">
         <v>1308</v>
@@ -6149,23 +6206,23 @@
       <c r="B44" t="s">
         <v>1364</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44">
+      <c r="E44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="6">
         <v>2009</v>
       </c>
-      <c r="H44">
-        <v>657929517</v>
+      <c r="H44" s="6">
+        <v>658998295</v>
       </c>
       <c r="I44" t="s">
         <v>62</v>
@@ -6184,23 +6241,23 @@
       <c r="B45" t="s">
         <v>1364</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45">
+      <c r="E45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="6">
         <v>2009</v>
       </c>
-      <c r="H45">
-        <v>658998295</v>
+      <c r="H45" s="6">
+        <v>672773223</v>
       </c>
       <c r="I45" t="s">
         <v>62</v>
@@ -6219,23 +6276,23 @@
       <c r="B46" t="s">
         <v>1364</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G46">
+      <c r="E46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="6">
         <v>2009</v>
       </c>
-      <c r="H46">
-        <v>672773223</v>
+      <c r="H46" s="6">
+        <v>36302110144</v>
       </c>
       <c r="I46" t="s">
         <v>1310</v>
@@ -6254,23 +6311,23 @@
       <c r="B47" t="s">
         <v>1364</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s">
-        <v>182</v>
-      </c>
-      <c r="G47">
+      <c r="E47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" s="6">
         <v>2008</v>
       </c>
-      <c r="H47">
-        <v>36302110144</v>
+      <c r="H47" s="6">
+        <v>632967765</v>
       </c>
       <c r="I47" t="s">
         <v>1314</v>
@@ -6289,23 +6346,23 @@
       <c r="B48" t="s">
         <v>1364</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E48" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" t="s">
-        <v>185</v>
-      </c>
-      <c r="G48">
+      <c r="E48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" s="6">
         <v>2008</v>
       </c>
-      <c r="H48">
-        <v>632967765</v>
+      <c r="H48" s="6">
+        <v>611015974</v>
       </c>
       <c r="I48" t="s">
         <v>62</v>
@@ -6324,23 +6381,23 @@
       <c r="B49" t="s">
         <v>1364</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F49" t="s">
-        <v>189</v>
-      </c>
-      <c r="G49">
+      <c r="F49" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" s="6">
         <v>2008</v>
       </c>
-      <c r="H49">
-        <v>611015974</v>
+      <c r="H49" s="6">
+        <v>688197118</v>
       </c>
       <c r="I49" t="s">
         <v>1311</v>
@@ -6359,23 +6416,23 @@
       <c r="B50" t="s">
         <v>1365</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" t="s">
-        <v>193</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="E50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H50">
-        <v>688197118</v>
+      <c r="H50" s="6">
+        <v>651408464</v>
       </c>
       <c r="I50" t="s">
         <v>62</v>
@@ -6394,23 +6451,23 @@
       <c r="B51" t="s">
         <v>1365</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" t="s">
-        <v>196</v>
-      </c>
-      <c r="G51" s="2">
+      <c r="E51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G51" s="7">
         <v>35764</v>
       </c>
-      <c r="H51">
-        <v>651408464</v>
+      <c r="H51" s="6">
+        <v>695687025</v>
       </c>
       <c r="I51" t="s">
         <v>692</v>
@@ -6429,23 +6486,23 @@
       <c r="B52" t="s">
         <v>1365</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="6" t="s">
         <v>1316</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52">
+      <c r="E52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G52" s="6">
         <v>2010</v>
       </c>
-      <c r="H52">
-        <v>695687025</v>
+      <c r="H52" s="6">
+        <v>656175503</v>
       </c>
       <c r="I52" t="s">
         <v>1308</v>
@@ -6464,23 +6521,23 @@
       <c r="B53" t="s">
         <v>1365</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E53" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" t="s">
-        <v>201</v>
-      </c>
-      <c r="G53">
+      <c r="E53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="6">
         <v>2010</v>
       </c>
-      <c r="H53">
-        <v>656175503</v>
+      <c r="H53" s="6">
+        <v>688116977</v>
       </c>
       <c r="I53" t="s">
         <v>692</v>
@@ -6499,23 +6556,23 @@
       <c r="B54" t="s">
         <v>1365</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E54" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" t="s">
-        <v>204</v>
-      </c>
-      <c r="G54">
+      <c r="E54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G54" s="6">
         <v>2010</v>
       </c>
-      <c r="H54">
-        <v>688116977</v>
+      <c r="H54" s="6">
+        <v>691497352</v>
       </c>
       <c r="I54" t="s">
         <v>1315</v>
@@ -6534,23 +6591,23 @@
       <c r="B55" t="s">
         <v>1365</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" t="s">
-        <v>207</v>
-      </c>
-      <c r="G55">
+      <c r="E55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G55" s="6">
         <v>2009</v>
       </c>
-      <c r="H55">
-        <v>691497352</v>
+      <c r="H55" s="6">
+        <v>688192783</v>
       </c>
       <c r="I55" t="s">
         <v>1308</v>
@@ -6569,23 +6626,23 @@
       <c r="B56" t="s">
         <v>1365</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E56" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" t="s">
-        <v>210</v>
-      </c>
-      <c r="G56">
+      <c r="E56" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G56" s="6">
         <v>2009</v>
       </c>
-      <c r="H56">
-        <v>688192783</v>
+      <c r="H56" s="6">
+        <v>611143858</v>
       </c>
       <c r="I56" t="s">
         <v>692</v>
@@ -6604,23 +6661,23 @@
       <c r="B57" t="s">
         <v>1365</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E57" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" t="s">
-        <v>213</v>
-      </c>
-      <c r="G57">
+      <c r="E57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" s="6">
         <v>2009</v>
       </c>
-      <c r="H57">
-        <v>611143858</v>
+      <c r="H57" s="6">
+        <v>625949043</v>
       </c>
       <c r="I57" t="s">
         <v>49</v>
@@ -6639,23 +6696,23 @@
       <c r="B58" t="s">
         <v>1365</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" t="s">
-        <v>216</v>
-      </c>
-      <c r="G58">
+      <c r="E58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G58" s="6">
         <v>2009</v>
       </c>
-      <c r="H58">
-        <v>625949043</v>
+      <c r="H58" s="6">
+        <v>601030099</v>
       </c>
       <c r="I58" t="s">
         <v>692</v>
@@ -6674,23 +6731,23 @@
       <c r="B59" t="s">
         <v>1365</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E59" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" t="s">
-        <v>219</v>
-      </c>
-      <c r="G59">
+      <c r="E59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G59" s="6">
         <v>2008</v>
       </c>
-      <c r="H59">
-        <v>601030099</v>
+      <c r="H59" s="6">
+        <v>688136697</v>
       </c>
       <c r="I59" t="s">
         <v>1317</v>
@@ -6709,23 +6766,23 @@
       <c r="B60" t="s">
         <v>1365</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" t="s">
-        <v>222</v>
-      </c>
-      <c r="G60">
+      <c r="E60" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" s="6">
         <v>2008</v>
       </c>
-      <c r="H60">
-        <v>688136697</v>
+      <c r="H60" s="6">
+        <v>626942372</v>
       </c>
       <c r="I60" t="s">
         <v>62</v>
@@ -6744,23 +6801,23 @@
       <c r="B61" t="s">
         <v>1365</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" t="s">
-        <v>225</v>
-      </c>
-      <c r="G61">
+      <c r="E61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G61" s="6">
         <v>2008</v>
       </c>
-      <c r="H61">
-        <v>626942372</v>
+      <c r="H61" s="6">
+        <v>658247212</v>
       </c>
       <c r="I61" t="s">
         <v>1311</v>
@@ -6779,24 +6836,22 @@
       <c r="B62" t="s">
         <v>1366</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E62" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" t="s">
-        <v>228</v>
-      </c>
-      <c r="G62">
+      <c r="E62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G62" s="6">
         <v>2000</v>
       </c>
-      <c r="H62">
-        <v>658247212</v>
-      </c>
+      <c r="H62" s="6"/>
       <c r="I62" t="s">
         <v>42</v>
       </c>
@@ -16883,13 +16938,13 @@
         <v>1349</v>
       </c>
       <c r="D351" t="s">
-        <v>120</v>
+        <v>1405</v>
       </c>
       <c r="E351" t="s">
         <v>30</v>
       </c>
       <c r="F351" t="s">
-        <v>122</v>
+        <v>1406</v>
       </c>
       <c r="G351" s="2">
         <v>27169</v>
@@ -19409,8 +19464,37 @@
         <v>443</v>
       </c>
     </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I424" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J424" t="s">
+        <v>1402</v>
+      </c>
+      <c r="K424">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/夏令营资料库.xlsx
+++ b/data/夏令营资料库.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuewe\Downloads\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED8803B-E935-491D-8CF3-96E68865F29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB4CDA-AF06-4D6F-9067-C3C9DAB531B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$424</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4679,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="E428" sqref="E428"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7276,7 +7279,7 @@
         <v>42</v>
       </c>
       <c r="J74" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K74">
         <v>212</v>

--- a/data/夏令营资料库.xlsx
+++ b/data/夏令营资料库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuewe\Downloads\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB4CDA-AF06-4D6F-9067-C3C9DAB531B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A30916-C63D-4ADA-8AF1-61DC3491F7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$424</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$425</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="1411">
   <si>
     <t>顺序</t>
   </si>
@@ -4275,6 +4275,16 @@
   </si>
   <si>
     <t>EG6260492</t>
+  </si>
+  <si>
+    <t>YINUO CHEN</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EM4127421</t>
   </si>
 </sst>
 </file>
@@ -4285,7 +4295,7 @@
     <numFmt numFmtId="176" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="177" formatCode="d\-m\-yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4307,6 +4317,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体-简 常规体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4357,7 +4380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4366,8 +4389,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4680,13 +4706,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K424"/>
+  <dimension ref="A1:L425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="D406" sqref="D406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
@@ -4697,7 +4723,7 @@
     <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4732,7 +4758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4767,7 +4793,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4802,7 +4828,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4837,7 +4863,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4872,7 +4898,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4907,7 +4933,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4942,7 +4968,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4977,7 +5003,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5012,7 +5038,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5047,7 +5073,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5082,7 +5108,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5117,7 +5143,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5152,7 +5178,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5187,7 +5213,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5222,7 +5248,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5257,7 +5283,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5292,7 +5318,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5327,7 +5353,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5362,7 +5388,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5397,7 +5423,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5432,7 +5458,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5467,7 +5493,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5502,7 +5528,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5537,7 +5563,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5572,7 +5598,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5607,7 +5633,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5642,7 +5668,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5677,7 +5703,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5712,7 +5738,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5747,7 +5773,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5782,7 +5808,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5817,7 +5843,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5852,7 +5878,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5887,7 +5913,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5922,7 +5948,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5957,7 +5983,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5992,7 +6018,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6027,7 +6053,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6062,7 +6088,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6097,7 +6123,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6132,29 +6158,29 @@
         <v>353</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>1364</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="E42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="7">
         <v>2010</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="7">
         <v>636862028</v>
       </c>
       <c r="I42" t="s">
@@ -6167,29 +6193,29 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>1364</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="7">
         <v>2009</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="7">
         <v>657929517</v>
       </c>
       <c r="I43" t="s">
@@ -6202,29 +6228,29 @@
         <v>432</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>1364</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="6" t="s">
+      <c r="E44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="7">
         <v>2009</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="7">
         <v>658998295</v>
       </c>
       <c r="I44" t="s">
@@ -6237,29 +6263,29 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>1364</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="E45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="7">
         <v>2009</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="7">
         <v>672773223</v>
       </c>
       <c r="I45" t="s">
@@ -6272,29 +6298,29 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>1364</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="E46" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="7">
         <v>2009</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="7">
         <v>36302110144</v>
       </c>
       <c r="I46" t="s">
@@ -6307,29 +6333,29 @@
         <v>407</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>1364</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="6" t="s">
+      <c r="E47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="7">
         <v>2008</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="7">
         <v>632967765</v>
       </c>
       <c r="I47" t="s">
@@ -6342,29 +6368,29 @@
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>1364</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="E48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="7">
         <v>2008</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="7">
         <v>611015974</v>
       </c>
       <c r="I48" t="s">
@@ -6377,29 +6403,29 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>1364</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="7">
         <v>2008</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="7">
         <v>688197118</v>
       </c>
       <c r="I49" t="s">
@@ -6412,29 +6438,29 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>1365</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="6" t="s">
+      <c r="E50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="7">
         <v>651408464</v>
       </c>
       <c r="I50" t="s">
@@ -6447,29 +6473,29 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>1365</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="6" t="s">
+      <c r="E51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="8">
         <v>35764</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="7">
         <v>695687025</v>
       </c>
       <c r="I51" t="s">
@@ -6482,29 +6508,29 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>1365</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="6" t="s">
+      <c r="E52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="7">
         <v>2010</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="7">
         <v>656175503</v>
       </c>
       <c r="I52" t="s">
@@ -6517,29 +6543,29 @@
         <v>453</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>1365</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="6" t="s">
+      <c r="E53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="7">
         <v>2010</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="7">
         <v>688116977</v>
       </c>
       <c r="I53" t="s">
@@ -6552,29 +6578,29 @@
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>1365</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="6" t="s">
+      <c r="E54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="7">
         <v>2010</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="7">
         <v>691497352</v>
       </c>
       <c r="I54" t="s">
@@ -6587,29 +6613,29 @@
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>1365</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="6" t="s">
+      <c r="E55" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="7">
         <v>2009</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="7">
         <v>688192783</v>
       </c>
       <c r="I55" t="s">
@@ -6622,29 +6648,29 @@
         <v>426</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>1365</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="E56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="7">
         <v>2009</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="7">
         <v>611143858</v>
       </c>
       <c r="I56" t="s">
@@ -6657,29 +6683,29 @@
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>1365</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="6" t="s">
+      <c r="E57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="7">
         <v>2009</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="7">
         <v>625949043</v>
       </c>
       <c r="I57" t="s">
@@ -6692,29 +6718,29 @@
         <v>243</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>1365</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" s="6" t="s">
+      <c r="E58" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="7">
         <v>2009</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="7">
         <v>601030099</v>
       </c>
       <c r="I58" t="s">
@@ -6727,29 +6753,29 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>1365</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="E59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="7">
         <v>2008</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="7">
         <v>688136697</v>
       </c>
       <c r="I59" t="s">
@@ -6762,29 +6788,29 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>1365</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" s="6" t="s">
+      <c r="E60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="7">
         <v>2008</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="7">
         <v>626942372</v>
       </c>
       <c r="I60" t="s">
@@ -6797,29 +6823,29 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>1365</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="6" t="s">
+      <c r="E61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="7">
         <v>2008</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="7">
         <v>658247212</v>
       </c>
       <c r="I61" t="s">
@@ -6832,29 +6858,29 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>1366</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="6" t="s">
+      <c r="E62" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>1407</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="7">
         <v>2000</v>
       </c>
-      <c r="H62" s="6"/>
+      <c r="H62" s="7"/>
       <c r="I62" t="s">
         <v>42</v>
       </c>
@@ -6865,7 +6891,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6900,7 +6926,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6935,7 +6961,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6970,7 +6996,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7005,7 +7031,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7040,7 +7066,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7075,7 +7101,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7110,7 +7136,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7145,7 +7171,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7180,7 +7206,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7215,7 +7241,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7250,7 +7276,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7285,7 +7311,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7320,7 +7346,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7355,7 +7381,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7390,7 +7416,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7425,7 +7451,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7460,7 +7486,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7495,7 +7521,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7527,7 +7553,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7562,7 +7588,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7597,7 +7623,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7632,7 +7658,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7667,7 +7693,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7702,7 +7728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7737,7 +7763,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7772,7 +7798,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7807,7 +7833,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7842,7 +7868,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7877,7 +7903,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7912,7 +7938,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7947,7 +7973,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7982,7 +8008,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8017,7 +8043,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8052,7 +8078,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8087,7 +8113,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8122,7 +8148,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8157,7 +8183,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8192,7 +8218,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8227,7 +8253,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8262,7 +8288,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8297,7 +8323,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8332,7 +8358,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8367,7 +8393,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8402,7 +8428,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8437,7 +8463,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8472,7 +8498,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8507,7 +8533,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8542,7 +8568,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8577,7 +8603,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8612,7 +8638,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8647,7 +8673,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8682,7 +8708,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8717,7 +8743,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8752,7 +8778,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8787,7 +8813,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8822,7 +8848,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8857,7 +8883,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8892,7 +8918,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8927,7 +8953,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8962,7 +8988,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8997,7 +9023,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9032,7 +9058,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9067,7 +9093,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9102,7 +9128,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9137,7 +9163,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9172,7 +9198,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9207,7 +9233,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9242,7 +9268,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9277,7 +9303,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9312,7 +9338,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9347,7 +9373,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9382,7 +9408,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9417,7 +9443,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9452,7 +9478,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9487,7 +9513,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9522,7 +9548,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9557,7 +9583,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9592,7 +9618,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9627,7 +9653,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9662,7 +9688,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9697,7 +9723,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9732,7 +9758,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9767,7 +9793,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9802,7 +9828,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9837,7 +9863,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9872,7 +9898,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9907,7 +9933,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9942,7 +9968,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9977,7 +10003,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10012,7 +10038,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10047,7 +10073,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10082,7 +10108,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10117,7 +10143,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10152,7 +10178,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10187,7 +10213,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10222,7 +10248,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10257,7 +10283,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10292,7 +10318,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10327,7 +10353,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10362,7 +10388,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10397,7 +10423,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10432,7 +10458,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10467,7 +10493,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10502,7 +10528,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10537,7 +10563,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10572,7 +10598,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10607,7 +10633,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10642,7 +10668,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10674,7 +10700,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10709,7 +10735,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10744,7 +10770,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10779,7 +10805,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10814,7 +10840,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10849,7 +10875,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10884,7 +10910,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10919,7 +10945,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10954,7 +10980,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10989,7 +11015,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11024,7 +11050,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11059,7 +11085,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11094,7 +11120,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11129,7 +11155,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11164,7 +11190,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11199,7 +11225,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11234,7 +11260,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>187</v>
       </c>
@@ -11269,7 +11295,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>188</v>
       </c>
@@ -11304,7 +11330,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11339,7 +11365,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11374,7 +11400,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11409,7 +11435,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11444,7 +11470,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11479,7 +11505,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11511,7 +11537,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11546,7 +11572,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11581,7 +11607,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11616,7 +11642,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11651,7 +11677,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11686,7 +11712,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11721,7 +11747,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11756,7 +11782,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11791,7 +11817,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11826,7 +11852,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11861,7 +11887,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11896,7 +11922,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11931,7 +11957,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11966,7 +11992,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11">
       <c r="A209">
         <v>208</v>
       </c>
@@ -12001,7 +12027,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11">
       <c r="A210">
         <v>209</v>
       </c>
@@ -12036,7 +12062,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11">
       <c r="A211">
         <v>210</v>
       </c>
@@ -12071,7 +12097,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11">
       <c r="A212">
         <v>211</v>
       </c>
@@ -12106,7 +12132,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213">
         <v>212</v>
       </c>
@@ -12141,7 +12167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214">
         <v>213</v>
       </c>
@@ -12176,7 +12202,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11">
       <c r="A215">
         <v>214</v>
       </c>
@@ -12211,7 +12237,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11">
       <c r="A216">
         <v>215</v>
       </c>
@@ -12246,7 +12272,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11">
       <c r="A217">
         <v>216</v>
       </c>
@@ -12281,7 +12307,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12316,7 +12342,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11">
       <c r="A219">
         <v>218</v>
       </c>
@@ -12351,7 +12377,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12386,7 +12412,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12421,7 +12447,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12456,7 +12482,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12491,7 +12517,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12526,7 +12552,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12561,7 +12587,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12596,7 +12622,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12631,7 +12657,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12666,7 +12692,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12701,7 +12727,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12736,7 +12762,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12771,7 +12797,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12806,7 +12832,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12841,7 +12867,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12876,7 +12902,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12911,7 +12937,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12946,7 +12972,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12981,7 +13007,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11">
       <c r="A238">
         <v>237</v>
       </c>
@@ -13016,7 +13042,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11">
       <c r="A239">
         <v>238</v>
       </c>
@@ -13051,7 +13077,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11">
       <c r="A240">
         <v>239</v>
       </c>
@@ -13086,7 +13112,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11">
       <c r="A241">
         <v>240</v>
       </c>
@@ -13121,7 +13147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11">
       <c r="A242">
         <v>241</v>
       </c>
@@ -13156,7 +13182,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11">
       <c r="A243">
         <v>242</v>
       </c>
@@ -13191,7 +13217,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11">
       <c r="A244">
         <v>243</v>
       </c>
@@ -13226,7 +13252,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11">
       <c r="A245">
         <v>244</v>
       </c>
@@ -13261,7 +13287,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11">
       <c r="A246">
         <v>245</v>
       </c>
@@ -13296,7 +13322,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11">
       <c r="A247">
         <v>246</v>
       </c>
@@ -13331,7 +13357,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11">
       <c r="A248">
         <v>247</v>
       </c>
@@ -13366,7 +13392,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11">
       <c r="A249">
         <v>248</v>
       </c>
@@ -13401,7 +13427,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11">
       <c r="A250">
         <v>249</v>
       </c>
@@ -13436,7 +13462,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11">
       <c r="A251">
         <v>250</v>
       </c>
@@ -13471,7 +13497,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11">
       <c r="A252">
         <v>251</v>
       </c>
@@ -13506,7 +13532,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11">
       <c r="A253">
         <v>252</v>
       </c>
@@ -13541,7 +13567,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11">
       <c r="A254">
         <v>253</v>
       </c>
@@ -13576,7 +13602,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11">
       <c r="A255">
         <v>254</v>
       </c>
@@ -13611,7 +13637,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11">
       <c r="A256">
         <v>255</v>
       </c>
@@ -13646,7 +13672,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11">
       <c r="A257">
         <v>256</v>
       </c>
@@ -13681,7 +13707,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13716,7 +13742,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13751,7 +13777,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13786,7 +13812,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13821,7 +13847,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13856,7 +13882,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13888,7 +13914,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13923,7 +13949,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13958,7 +13984,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13993,7 +14019,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11">
       <c r="A267">
         <v>266</v>
       </c>
@@ -14028,7 +14054,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11">
       <c r="A268">
         <v>267</v>
       </c>
@@ -14063,7 +14089,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11">
       <c r="A269">
         <v>268</v>
       </c>
@@ -14098,7 +14124,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11">
       <c r="A270">
         <v>269</v>
       </c>
@@ -14133,7 +14159,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11">
       <c r="A271">
         <v>270</v>
       </c>
@@ -14168,7 +14194,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11">
       <c r="A272">
         <v>271</v>
       </c>
@@ -14203,7 +14229,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11">
       <c r="A273">
         <v>272</v>
       </c>
@@ -14238,7 +14264,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11">
       <c r="A274">
         <v>273</v>
       </c>
@@ -14273,7 +14299,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="A275">
         <v>274</v>
       </c>
@@ -14308,7 +14334,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11">
       <c r="A276">
         <v>275</v>
       </c>
@@ -14343,7 +14369,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11">
       <c r="A277">
         <v>276</v>
       </c>
@@ -14378,7 +14404,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11">
       <c r="A278">
         <v>277</v>
       </c>
@@ -14413,7 +14439,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="A279">
         <v>278</v>
       </c>
@@ -14448,7 +14474,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11">
       <c r="A280">
         <v>279</v>
       </c>
@@ -14483,7 +14509,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11">
       <c r="A281">
         <v>280</v>
       </c>
@@ -14518,7 +14544,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11">
       <c r="A282">
         <v>281</v>
       </c>
@@ -14553,7 +14579,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="A283">
         <v>282</v>
       </c>
@@ -14588,7 +14614,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11">
       <c r="A284">
         <v>283</v>
       </c>
@@ -14623,7 +14649,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11">
       <c r="A285">
         <v>284</v>
       </c>
@@ -14658,7 +14684,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11">
       <c r="A286">
         <v>285</v>
       </c>
@@ -14693,7 +14719,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11">
       <c r="A287">
         <v>286</v>
       </c>
@@ -14728,7 +14754,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11">
       <c r="A288">
         <v>287</v>
       </c>
@@ -14763,7 +14789,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11">
       <c r="A289">
         <v>288</v>
       </c>
@@ -14798,7 +14824,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14833,7 +14859,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14868,7 +14894,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14903,7 +14929,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14938,7 +14964,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14973,7 +14999,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11">
       <c r="A295">
         <v>294</v>
       </c>
@@ -15008,7 +15034,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11">
       <c r="A296">
         <v>295</v>
       </c>
@@ -15043,7 +15069,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11">
       <c r="A297">
         <v>296</v>
       </c>
@@ -15078,7 +15104,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11">
       <c r="A298">
         <v>297</v>
       </c>
@@ -15113,7 +15139,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11">
       <c r="A299">
         <v>298</v>
       </c>
@@ -15148,7 +15174,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11">
       <c r="A300">
         <v>299</v>
       </c>
@@ -15183,7 +15209,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11">
       <c r="A301">
         <v>300</v>
       </c>
@@ -15218,7 +15244,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11">
       <c r="A302">
         <v>301</v>
       </c>
@@ -15253,7 +15279,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11">
       <c r="A303">
         <v>302</v>
       </c>
@@ -15288,7 +15314,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11">
       <c r="A304">
         <v>303</v>
       </c>
@@ -15323,7 +15349,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11">
       <c r="A305">
         <v>304</v>
       </c>
@@ -15358,7 +15384,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11">
       <c r="A306">
         <v>305</v>
       </c>
@@ -15393,7 +15419,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11">
       <c r="A307">
         <v>306</v>
       </c>
@@ -15428,7 +15454,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15463,7 +15489,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11">
       <c r="A309">
         <v>308</v>
       </c>
@@ -15498,7 +15524,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11">
       <c r="A310">
         <v>309</v>
       </c>
@@ -15533,7 +15559,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15568,7 +15594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15603,7 +15629,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15638,7 +15664,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15673,7 +15699,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15708,7 +15734,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15740,7 +15766,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15775,7 +15801,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15810,7 +15836,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15845,7 +15871,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15880,7 +15906,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15915,7 +15941,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15950,7 +15976,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11">
       <c r="A323">
         <v>322</v>
       </c>
@@ -15985,7 +16011,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11">
       <c r="A324">
         <v>323</v>
       </c>
@@ -16020,7 +16046,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11">
       <c r="A325">
         <v>324</v>
       </c>
@@ -16055,7 +16081,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11">
       <c r="A326">
         <v>325</v>
       </c>
@@ -16090,7 +16116,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11">
       <c r="A327">
         <v>326</v>
       </c>
@@ -16125,7 +16151,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11">
       <c r="A328">
         <v>327</v>
       </c>
@@ -16160,7 +16186,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11">
       <c r="A329">
         <v>328</v>
       </c>
@@ -16195,7 +16221,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11">
       <c r="A330">
         <v>329</v>
       </c>
@@ -16230,7 +16256,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11">
       <c r="A331">
         <v>330</v>
       </c>
@@ -16265,7 +16291,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11">
       <c r="A332">
         <v>331</v>
       </c>
@@ -16300,7 +16326,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11">
       <c r="A333">
         <v>332</v>
       </c>
@@ -16335,7 +16361,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11">
       <c r="A334">
         <v>333</v>
       </c>
@@ -16370,7 +16396,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16405,7 +16431,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16440,7 +16466,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16475,7 +16501,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16510,7 +16536,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16545,7 +16571,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16580,7 +16606,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11">
       <c r="A341">
         <v>340</v>
       </c>
@@ -16615,7 +16641,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11">
       <c r="A342">
         <v>341</v>
       </c>
@@ -16650,7 +16676,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11">
       <c r="A343">
         <v>342</v>
       </c>
@@ -16685,7 +16711,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11">
       <c r="A344">
         <v>343</v>
       </c>
@@ -16720,7 +16746,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11">
       <c r="A345">
         <v>344</v>
       </c>
@@ -16755,7 +16781,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16790,7 +16816,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16825,7 +16851,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16860,7 +16886,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11">
       <c r="A349">
         <v>348</v>
       </c>
@@ -16895,7 +16921,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11">
       <c r="A350">
         <v>349</v>
       </c>
@@ -16930,7 +16956,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11">
       <c r="A351">
         <v>350</v>
       </c>
@@ -16965,7 +16991,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11">
       <c r="A352">
         <v>351</v>
       </c>
@@ -17000,7 +17026,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>352</v>
       </c>
@@ -17035,7 +17061,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>353</v>
       </c>
@@ -17070,7 +17096,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>354</v>
       </c>
@@ -17105,7 +17131,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>355</v>
       </c>
@@ -17140,7 +17166,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>356</v>
       </c>
@@ -17175,7 +17201,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" s="6" customFormat="1" ht="17.5">
       <c r="A358">
         <v>357</v>
       </c>
@@ -17183,34 +17209,35 @@
         <v>1390</v>
       </c>
       <c r="C358" t="s">
-        <v>1088</v>
+        <v>794</v>
       </c>
       <c r="D358" t="s">
-        <v>1089</v>
+        <v>1408</v>
       </c>
       <c r="E358" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F358" t="s">
-        <v>1090</v>
+        <v>1410</v>
       </c>
       <c r="G358">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="H358">
-        <v>642321288</v>
+        <v>36709332049</v>
       </c>
       <c r="I358" t="s">
-        <v>1320</v>
+        <v>1409</v>
       </c>
       <c r="J358" t="s">
         <v>1361</v>
       </c>
       <c r="K358">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="L358"/>
+    </row>
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>358</v>
       </c>
@@ -17218,34 +17245,34 @@
         <v>1390</v>
       </c>
       <c r="C359" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D359" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E359" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F359" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="G359">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="H359">
-        <v>684163078</v>
+        <v>642321288</v>
       </c>
       <c r="I359" t="s">
-        <v>692</v>
+        <v>1320</v>
       </c>
       <c r="J359" t="s">
         <v>1361</v>
       </c>
       <c r="K359">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>359</v>
       </c>
@@ -17253,139 +17280,139 @@
         <v>1390</v>
       </c>
       <c r="C360" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D360" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E360" t="s">
         <v>31</v>
       </c>
       <c r="F360" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="G360">
         <v>1998</v>
       </c>
       <c r="H360">
-        <v>68828082</v>
+        <v>684163078</v>
       </c>
       <c r="I360" t="s">
-        <v>62</v>
+        <v>692</v>
       </c>
       <c r="J360" t="s">
         <v>1361</v>
       </c>
       <c r="K360">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C361" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D361" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E361" t="s">
         <v>31</v>
       </c>
       <c r="F361" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G361" t="s">
-        <v>1099</v>
+        <v>1096</v>
+      </c>
+      <c r="G361">
+        <v>1998</v>
       </c>
       <c r="H361">
-        <v>618604023</v>
+        <v>68828082</v>
       </c>
       <c r="I361" t="s">
-        <v>692</v>
+        <v>62</v>
       </c>
       <c r="J361" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="K361">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>361</v>
       </c>
       <c r="B362" t="s">
         <v>1391</v>
       </c>
-      <c r="C362" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E362" s="3" t="s">
-        <v>30</v>
+      <c r="C362" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E362" t="s">
+        <v>31</v>
       </c>
       <c r="F362" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G362" s="3" t="s">
-        <v>1103</v>
+        <v>1100</v>
+      </c>
+      <c r="G362" t="s">
+        <v>1099</v>
       </c>
       <c r="H362">
-        <v>625970076</v>
-      </c>
-      <c r="I362" s="3" t="s">
-        <v>1104</v>
+        <v>618604023</v>
+      </c>
+      <c r="I362" t="s">
+        <v>692</v>
       </c>
       <c r="J362" t="s">
         <v>1360</v>
       </c>
       <c r="K362">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12">
       <c r="A363">
         <v>362</v>
       </c>
       <c r="B363" t="s">
         <v>1391</v>
       </c>
-      <c r="C363" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E363" t="s">
+      <c r="C363" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E363" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F363" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G363">
-        <v>1998</v>
+        <v>1105</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>1103</v>
       </c>
       <c r="H363">
-        <v>623377694</v>
-      </c>
-      <c r="I363" t="s">
-        <v>62</v>
+        <v>625970076</v>
+      </c>
+      <c r="I363" s="3" t="s">
+        <v>1104</v>
       </c>
       <c r="J363" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K363">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12">
       <c r="A364">
         <v>363</v>
       </c>
@@ -17393,34 +17420,34 @@
         <v>1391</v>
       </c>
       <c r="C364" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D364" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E364" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F364" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G364">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="H364">
-        <v>605058258</v>
+        <v>623377694</v>
       </c>
       <c r="I364" t="s">
-        <v>1308</v>
+        <v>62</v>
       </c>
       <c r="J364" t="s">
         <v>1361</v>
       </c>
       <c r="K364">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12">
       <c r="A365">
         <v>364</v>
       </c>
@@ -17428,34 +17455,34 @@
         <v>1391</v>
       </c>
       <c r="C365" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D365" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E365" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F365" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G365">
         <v>1997</v>
       </c>
       <c r="H365">
-        <v>640080564</v>
+        <v>605058258</v>
       </c>
       <c r="I365" t="s">
-        <v>692</v>
+        <v>1308</v>
       </c>
       <c r="J365" t="s">
         <v>1361</v>
       </c>
       <c r="K365">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12">
       <c r="A366">
         <v>365</v>
       </c>
@@ -17463,34 +17490,34 @@
         <v>1391</v>
       </c>
       <c r="C366" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D366" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E366" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F366" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="G366">
         <v>1997</v>
       </c>
       <c r="H366">
-        <v>698965081</v>
+        <v>640080564</v>
       </c>
       <c r="I366" t="s">
-        <v>1320</v>
+        <v>692</v>
       </c>
       <c r="J366" t="s">
         <v>1361</v>
       </c>
       <c r="K366">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
       <c r="A367">
         <v>366</v>
       </c>
@@ -17498,34 +17525,34 @@
         <v>1391</v>
       </c>
       <c r="C367" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D367" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E367" t="s">
         <v>31</v>
       </c>
       <c r="F367" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G367">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H367">
-        <v>688556240</v>
+        <v>698965081</v>
       </c>
       <c r="I367" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="J367" t="s">
         <v>1361</v>
       </c>
       <c r="K367">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>367</v>
       </c>
@@ -17533,34 +17560,34 @@
         <v>1391</v>
       </c>
       <c r="C368" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D368" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E368" t="s">
         <v>31</v>
       </c>
       <c r="F368" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G368">
         <v>1996</v>
       </c>
       <c r="H368">
-        <v>692089723</v>
+        <v>688556240</v>
       </c>
       <c r="I368" t="s">
-        <v>692</v>
+        <v>1308</v>
       </c>
       <c r="J368" t="s">
         <v>1361</v>
       </c>
       <c r="K368">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11">
       <c r="A369">
         <v>368</v>
       </c>
@@ -17568,22 +17595,22 @@
         <v>1391</v>
       </c>
       <c r="C369" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D369" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E369" t="s">
         <v>31</v>
       </c>
       <c r="F369" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G369">
         <v>1996</v>
       </c>
       <c r="H369">
-        <v>605056981</v>
+        <v>692089723</v>
       </c>
       <c r="I369" t="s">
         <v>692</v>
@@ -17592,10 +17619,10 @@
         <v>1361</v>
       </c>
       <c r="K369">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11">
       <c r="A370">
         <v>369</v>
       </c>
@@ -17603,22 +17630,22 @@
         <v>1391</v>
       </c>
       <c r="C370" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D370" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E370" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F370" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="G370">
         <v>1996</v>
       </c>
       <c r="H370">
-        <v>694473216</v>
+        <v>605056981</v>
       </c>
       <c r="I370" t="s">
         <v>692</v>
@@ -17627,10 +17654,10 @@
         <v>1361</v>
       </c>
       <c r="K370">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11">
       <c r="A371">
         <v>370</v>
       </c>
@@ -17638,34 +17665,34 @@
         <v>1391</v>
       </c>
       <c r="C371" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D371" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="E371" t="s">
         <v>30</v>
       </c>
       <c r="F371" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G371">
         <v>1996</v>
       </c>
       <c r="H371">
-        <v>625949043</v>
+        <v>694473216</v>
       </c>
       <c r="I371" t="s">
-        <v>49</v>
+        <v>692</v>
       </c>
       <c r="J371" t="s">
         <v>1361</v>
       </c>
       <c r="K371">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11">
       <c r="A372">
         <v>371</v>
       </c>
@@ -17673,66 +17700,66 @@
         <v>1391</v>
       </c>
       <c r="C372" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D372" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E372" t="s">
         <v>30</v>
       </c>
       <c r="F372" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="G372">
-        <v>1995</v>
+        <v>1996</v>
+      </c>
+      <c r="H372">
+        <v>625949043</v>
       </c>
       <c r="I372" t="s">
-        <v>1308</v>
+        <v>49</v>
       </c>
       <c r="J372" t="s">
         <v>1361</v>
       </c>
       <c r="K372">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11">
       <c r="A373">
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>1363</v>
+        <v>1391</v>
       </c>
       <c r="C373" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="D373" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="E373" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F373" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G373">
-        <v>1974</v>
-      </c>
-      <c r="H373">
-        <v>643039495</v>
+        <v>1995</v>
       </c>
       <c r="I373" t="s">
         <v>1308</v>
       </c>
       <c r="J373" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K373">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11">
       <c r="A374">
         <v>373</v>
       </c>
@@ -17740,22 +17767,22 @@
         <v>1363</v>
       </c>
       <c r="C374" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D374" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E374" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F374" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G374">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="H374">
-        <v>643039374</v>
+        <v>643039495</v>
       </c>
       <c r="I374" t="s">
         <v>1308</v>
@@ -17767,42 +17794,42 @@
         <v>421</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11">
       <c r="A375">
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>1394</v>
+        <v>1363</v>
       </c>
       <c r="C375" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D375" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E375" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F375" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G375" t="s">
-        <v>1144</v>
+        <v>1141</v>
+      </c>
+      <c r="G375">
+        <v>1977</v>
       </c>
       <c r="H375">
-        <v>625106638</v>
+        <v>643039374</v>
       </c>
       <c r="I375" t="s">
-        <v>42</v>
+        <v>1308</v>
       </c>
       <c r="J375" t="s">
         <v>1362</v>
       </c>
       <c r="K375">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11">
       <c r="A376">
         <v>375</v>
       </c>
@@ -17810,22 +17837,22 @@
         <v>1394</v>
       </c>
       <c r="C376" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D376" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E376" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F376" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="G376" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="H376">
-        <v>685917434</v>
+        <v>625106638</v>
       </c>
       <c r="I376" t="s">
         <v>42</v>
@@ -17837,30 +17864,30 @@
         <v>344</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11">
       <c r="A377">
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>1153</v>
+        <v>1394</v>
       </c>
       <c r="C377" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D377" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="E377" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F377" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G377" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="H377">
-        <v>688192690</v>
+        <v>685917434</v>
       </c>
       <c r="I377" t="s">
         <v>42</v>
@@ -17869,10 +17896,10 @@
         <v>1362</v>
       </c>
       <c r="K377">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11">
       <c r="A378">
         <v>377</v>
       </c>
@@ -17880,22 +17907,22 @@
         <v>1153</v>
       </c>
       <c r="C378" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="D378" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="E378" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F378" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G378" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="H378">
-        <v>640826387</v>
+        <v>688192690</v>
       </c>
       <c r="I378" t="s">
         <v>42</v>
@@ -17904,10 +17931,10 @@
         <v>1362</v>
       </c>
       <c r="K378">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11">
       <c r="A379">
         <v>378</v>
       </c>
@@ -17915,16 +17942,19 @@
         <v>1153</v>
       </c>
       <c r="C379" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="D379" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E379" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1158</v>
       </c>
       <c r="G379" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="H379">
         <v>640826387</v>
@@ -17933,71 +17963,68 @@
         <v>42</v>
       </c>
       <c r="J379" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="K379">
         <v>422</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11">
       <c r="A380">
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="C380" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D380" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E380" t="s">
         <v>31</v>
       </c>
-      <c r="F380" t="s">
-        <v>1166</v>
-      </c>
       <c r="G380" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="H380">
-        <v>605857072</v>
+        <v>640826387</v>
       </c>
       <c r="I380" t="s">
         <v>42</v>
       </c>
       <c r="J380" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K380">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11">
       <c r="A381">
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>1394</v>
+        <v>1165</v>
       </c>
       <c r="C381" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="D381" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="E381" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F381" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="G381" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="H381">
-        <v>657089975</v>
+        <v>605857072</v>
       </c>
       <c r="I381" t="s">
         <v>42</v>
@@ -18006,10 +18033,10 @@
         <v>1362</v>
       </c>
       <c r="K381">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11">
       <c r="A382">
         <v>381</v>
       </c>
@@ -18017,19 +18044,19 @@
         <v>1394</v>
       </c>
       <c r="C382" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="D382" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="E382" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F382" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="G382" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="H382">
         <v>657089975</v>
@@ -18044,7 +18071,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11">
       <c r="A383">
         <v>382</v>
       </c>
@@ -18052,22 +18079,22 @@
         <v>1394</v>
       </c>
       <c r="C383" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="D383" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E383" t="s">
         <v>31</v>
       </c>
       <c r="F383" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="G383" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="H383">
-        <v>620964876</v>
+        <v>657089975</v>
       </c>
       <c r="I383" t="s">
         <v>42</v>
@@ -18076,10 +18103,10 @@
         <v>1362</v>
       </c>
       <c r="K383">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11">
       <c r="A384">
         <v>383</v>
       </c>
@@ -18087,22 +18114,22 @@
         <v>1394</v>
       </c>
       <c r="C384" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="D384" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="E384" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F384" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="G384" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="H384">
-        <v>645574052</v>
+        <v>620964876</v>
       </c>
       <c r="I384" t="s">
         <v>42</v>
@@ -18114,7 +18141,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11">
       <c r="A385">
         <v>384</v>
       </c>
@@ -18122,22 +18149,22 @@
         <v>1394</v>
       </c>
       <c r="C385" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="D385" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E385" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F385" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G385" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="H385">
-        <v>620964876</v>
+        <v>645574052</v>
       </c>
       <c r="I385" t="s">
         <v>42</v>
@@ -18149,30 +18176,30 @@
         <v>216</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11">
       <c r="A386">
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>1188</v>
+        <v>1394</v>
       </c>
       <c r="C386" t="s">
-        <v>10</v>
+        <v>1183</v>
       </c>
       <c r="D386" t="s">
-        <v>20</v>
+        <v>1184</v>
       </c>
       <c r="E386" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F386" t="s">
-        <v>32</v>
+        <v>1186</v>
       </c>
       <c r="G386" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H386">
-        <v>688578390</v>
+        <v>620964876</v>
       </c>
       <c r="I386" t="s">
         <v>42</v>
@@ -18181,10 +18208,10 @@
         <v>1362</v>
       </c>
       <c r="K386">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11">
       <c r="A387">
         <v>386</v>
       </c>
@@ -18192,22 +18219,22 @@
         <v>1188</v>
       </c>
       <c r="C387" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D387" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E387" t="s">
         <v>30</v>
       </c>
       <c r="F387" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G387" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H387">
-        <v>688166676</v>
+        <v>688578390</v>
       </c>
       <c r="I387" t="s">
         <v>42</v>
@@ -18216,10 +18243,10 @@
         <v>1362</v>
       </c>
       <c r="K387">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11">
       <c r="A388">
         <v>387</v>
       </c>
@@ -18227,22 +18254,22 @@
         <v>1188</v>
       </c>
       <c r="C388" t="s">
-        <v>1190</v>
+        <v>11</v>
       </c>
       <c r="D388" t="s">
-        <v>1191</v>
+        <v>21</v>
       </c>
       <c r="E388" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F388" t="s">
-        <v>1193</v>
+        <v>33</v>
       </c>
       <c r="G388" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H388">
-        <v>640257306</v>
+        <v>688166676</v>
       </c>
       <c r="I388" t="s">
         <v>42</v>
@@ -18254,7 +18281,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11">
       <c r="A389">
         <v>388</v>
       </c>
@@ -18262,22 +18289,22 @@
         <v>1188</v>
       </c>
       <c r="C389" t="s">
-        <v>12</v>
+        <v>1190</v>
       </c>
       <c r="D389" t="s">
-        <v>22</v>
+        <v>1191</v>
       </c>
       <c r="E389" t="s">
         <v>31</v>
       </c>
       <c r="F389" t="s">
-        <v>34</v>
+        <v>1193</v>
       </c>
       <c r="G389" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="H389">
-        <v>691593616</v>
+        <v>640257306</v>
       </c>
       <c r="I389" t="s">
         <v>42</v>
@@ -18286,10 +18313,10 @@
         <v>1362</v>
       </c>
       <c r="K389">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11">
       <c r="A390">
         <v>389</v>
       </c>
@@ -18297,22 +18324,22 @@
         <v>1188</v>
       </c>
       <c r="C390" t="s">
-        <v>1195</v>
+        <v>12</v>
       </c>
       <c r="D390" t="s">
-        <v>1196</v>
+        <v>22</v>
       </c>
       <c r="E390" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F390" t="s">
-        <v>1198</v>
+        <v>34</v>
       </c>
       <c r="G390" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="H390">
-        <v>654247190</v>
+        <v>691593616</v>
       </c>
       <c r="I390" t="s">
         <v>42</v>
@@ -18321,33 +18348,33 @@
         <v>1362</v>
       </c>
       <c r="K390">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11">
       <c r="A391">
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>1394</v>
+        <v>1188</v>
       </c>
       <c r="C391" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="D391" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E391" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F391" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="G391" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="H391">
-        <v>691830772</v>
+        <v>654247190</v>
       </c>
       <c r="I391" t="s">
         <v>42</v>
@@ -18356,10 +18383,10 @@
         <v>1362</v>
       </c>
       <c r="K391">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11">
       <c r="A392">
         <v>391</v>
       </c>
@@ -18367,22 +18394,22 @@
         <v>1394</v>
       </c>
       <c r="C392" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="D392" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E392" t="s">
         <v>31</v>
       </c>
       <c r="F392" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="G392" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="H392">
-        <v>616721415</v>
+        <v>691830772</v>
       </c>
       <c r="I392" t="s">
         <v>42</v>
@@ -18391,10 +18418,10 @@
         <v>1362</v>
       </c>
       <c r="K392">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11">
       <c r="A393">
         <v>392</v>
       </c>
@@ -18402,22 +18429,22 @@
         <v>1394</v>
       </c>
       <c r="C393" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="D393" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E393" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F393" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="G393" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="H393">
-        <v>653038051</v>
+        <v>616721415</v>
       </c>
       <c r="I393" t="s">
         <v>42</v>
@@ -18429,7 +18456,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11">
       <c r="A394">
         <v>393</v>
       </c>
@@ -18437,22 +18464,22 @@
         <v>1394</v>
       </c>
       <c r="C394" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="D394" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="E394" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F394" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="G394" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="H394">
-        <v>616721415</v>
+        <v>653038051</v>
       </c>
       <c r="I394" t="s">
         <v>42</v>
@@ -18464,7 +18491,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11">
       <c r="A395">
         <v>394</v>
       </c>
@@ -18472,22 +18499,22 @@
         <v>1394</v>
       </c>
       <c r="C395" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="D395" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="E395" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F395" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="G395" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="H395">
-        <v>692088108</v>
+        <v>616721415</v>
       </c>
       <c r="I395" t="s">
         <v>42</v>
@@ -18496,10 +18523,10 @@
         <v>1362</v>
       </c>
       <c r="K395">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11">
       <c r="A396">
         <v>395</v>
       </c>
@@ -18507,22 +18534,22 @@
         <v>1394</v>
       </c>
       <c r="C396" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="D396" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E396" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F396" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="G396" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="H396">
-        <v>686459007</v>
+        <v>692088108</v>
       </c>
       <c r="I396" t="s">
         <v>42</v>
@@ -18534,7 +18561,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11">
       <c r="A397">
         <v>396</v>
       </c>
@@ -18542,22 +18569,22 @@
         <v>1394</v>
       </c>
       <c r="C397" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D397" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E397" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F397" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="G397" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="H397">
-        <v>653075878</v>
+        <v>686459007</v>
       </c>
       <c r="I397" t="s">
         <v>42</v>
@@ -18566,10 +18593,10 @@
         <v>1362</v>
       </c>
       <c r="K397">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11">
       <c r="A398">
         <v>397</v>
       </c>
@@ -18577,22 +18604,22 @@
         <v>1394</v>
       </c>
       <c r="C398" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D398" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E398" t="s">
         <v>30</v>
       </c>
       <c r="F398" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="G398" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="H398">
-        <v>657611033</v>
+        <v>653075878</v>
       </c>
       <c r="I398" t="s">
         <v>42</v>
@@ -18604,7 +18631,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11">
       <c r="A399">
         <v>398</v>
       </c>
@@ -18612,22 +18639,22 @@
         <v>1394</v>
       </c>
       <c r="C399" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="D399" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="E399" t="s">
         <v>30</v>
       </c>
       <c r="F399" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="G399" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="H399">
-        <v>691032917</v>
+        <v>657611033</v>
       </c>
       <c r="I399" t="s">
         <v>42</v>
@@ -18639,39 +18666,42 @@
         <v>213</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11">
       <c r="A400">
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C400" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D400" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="E400" t="s">
         <v>30</v>
       </c>
       <c r="F400" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G400" s="2">
-        <v>20212</v>
+        <v>1234</v>
+      </c>
+      <c r="G400" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H400">
+        <v>691032917</v>
       </c>
       <c r="I400" t="s">
-        <v>692</v>
+        <v>42</v>
       </c>
       <c r="J400" t="s">
         <v>1362</v>
       </c>
       <c r="K400">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11">
       <c r="A401">
         <v>400</v>
       </c>
@@ -18679,19 +18709,19 @@
         <v>1395</v>
       </c>
       <c r="C401" t="s">
-        <v>1350</v>
+        <v>1235</v>
       </c>
       <c r="D401" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E401" t="s">
         <v>30</v>
       </c>
       <c r="F401" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G401" s="2">
-        <v>22236</v>
+        <v>20212</v>
       </c>
       <c r="I401" t="s">
         <v>692</v>
@@ -18703,30 +18733,27 @@
         <v>308</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11">
       <c r="A402">
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>1165</v>
+        <v>1395</v>
       </c>
       <c r="C402" t="s">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="D402" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E402" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F402" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="G402" s="2">
-        <v>35865</v>
-      </c>
-      <c r="H402">
-        <v>615524297</v>
+        <v>22236</v>
       </c>
       <c r="I402" t="s">
         <v>692</v>
@@ -18735,33 +18762,33 @@
         <v>1362</v>
       </c>
       <c r="K402">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11">
       <c r="A403">
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>1395</v>
+        <v>1165</v>
       </c>
       <c r="C403" t="s">
-        <v>1351</v>
+        <v>1240</v>
       </c>
       <c r="D403" t="s">
-        <v>1352</v>
+        <v>1241</v>
       </c>
       <c r="E403" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F403" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G403" t="s">
-        <v>1243</v>
+        <v>1242</v>
+      </c>
+      <c r="G403" s="2">
+        <v>35865</v>
       </c>
       <c r="H403">
-        <v>618604023</v>
+        <v>615524297</v>
       </c>
       <c r="I403" t="s">
         <v>692</v>
@@ -18770,10 +18797,10 @@
         <v>1362</v>
       </c>
       <c r="K403">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11">
       <c r="A404">
         <v>403</v>
       </c>
@@ -18781,22 +18808,22 @@
         <v>1395</v>
       </c>
       <c r="C404" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D404" t="s">
-        <v>1245</v>
+        <v>1352</v>
       </c>
       <c r="E404" t="s">
         <v>30</v>
       </c>
       <c r="F404" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="G404" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="H404">
-        <v>692415888</v>
+        <v>618604023</v>
       </c>
       <c r="I404" t="s">
         <v>692</v>
@@ -18805,45 +18832,45 @@
         <v>1362</v>
       </c>
       <c r="K404">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11">
       <c r="A405">
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C405" t="s">
-        <v>1248</v>
+        <v>1353</v>
       </c>
       <c r="D405" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E405" t="s">
         <v>30</v>
       </c>
       <c r="F405" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G405" s="4">
-        <v>23686</v>
+        <v>1247</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1246</v>
       </c>
       <c r="H405">
-        <v>665801179</v>
+        <v>692415888</v>
       </c>
       <c r="I405" t="s">
-        <v>49</v>
+        <v>692</v>
       </c>
       <c r="J405" t="s">
         <v>1362</v>
       </c>
       <c r="K405">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11">
       <c r="A406">
         <v>405</v>
       </c>
@@ -18851,22 +18878,22 @@
         <v>1396</v>
       </c>
       <c r="C406" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D406" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="E406" t="s">
         <v>30</v>
       </c>
       <c r="F406" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="G406" s="4">
-        <v>20911</v>
+        <v>23686</v>
       </c>
       <c r="H406">
-        <v>635310057</v>
+        <v>665801179</v>
       </c>
       <c r="I406" t="s">
         <v>49</v>
@@ -18878,7 +18905,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11">
       <c r="A407">
         <v>406</v>
       </c>
@@ -18886,22 +18913,22 @@
         <v>1396</v>
       </c>
       <c r="C407" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D407" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E407" t="s">
         <v>30</v>
       </c>
       <c r="F407" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="G407" s="4">
-        <v>22982</v>
+        <v>20911</v>
       </c>
       <c r="H407">
-        <v>640055623</v>
+        <v>635310057</v>
       </c>
       <c r="I407" t="s">
         <v>49</v>
@@ -18913,7 +18940,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11">
       <c r="A408">
         <v>407</v>
       </c>
@@ -18921,22 +18948,22 @@
         <v>1396</v>
       </c>
       <c r="C408" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D408" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E408" t="s">
         <v>30</v>
       </c>
       <c r="F408" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="G408" s="4">
-        <v>20708</v>
+        <v>22982</v>
       </c>
       <c r="H408">
-        <v>620531899</v>
+        <v>640055623</v>
       </c>
       <c r="I408" t="s">
         <v>49</v>
@@ -18945,10 +18972,10 @@
         <v>1362</v>
       </c>
       <c r="K408">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11">
       <c r="A409">
         <v>408</v>
       </c>
@@ -18956,22 +18983,22 @@
         <v>1396</v>
       </c>
       <c r="C409" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D409" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="E409" t="s">
         <v>30</v>
       </c>
       <c r="F409" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="G409" s="4">
-        <v>25308</v>
+        <v>20708</v>
       </c>
       <c r="H409">
-        <v>644372918</v>
+        <v>620531899</v>
       </c>
       <c r="I409" t="s">
         <v>49</v>
@@ -18983,7 +19010,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11">
       <c r="A410">
         <v>409</v>
       </c>
@@ -18991,22 +19018,22 @@
         <v>1396</v>
       </c>
       <c r="C410" t="s">
-        <v>1354</v>
+        <v>1260</v>
       </c>
       <c r="D410" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E410" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F410" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G410" s="5">
-        <v>42331</v>
+        <v>1262</v>
+      </c>
+      <c r="G410" s="4">
+        <v>25308</v>
       </c>
       <c r="H410">
-        <v>617247324</v>
+        <v>644372918</v>
       </c>
       <c r="I410" t="s">
         <v>49</v>
@@ -19015,10 +19042,10 @@
         <v>1362</v>
       </c>
       <c r="K410">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11">
       <c r="A411">
         <v>410</v>
       </c>
@@ -19026,19 +19053,19 @@
         <v>1396</v>
       </c>
       <c r="C411" t="s">
-        <v>1265</v>
+        <v>1354</v>
       </c>
       <c r="D411" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E411" t="s">
         <v>31</v>
       </c>
       <c r="F411" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G411" s="4">
-        <v>43301</v>
+        <v>1264</v>
+      </c>
+      <c r="G411" s="5">
+        <v>42331</v>
       </c>
       <c r="H411">
         <v>617247324</v>
@@ -19053,7 +19080,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11">
       <c r="A412">
         <v>411</v>
       </c>
@@ -19061,22 +19088,22 @@
         <v>1396</v>
       </c>
       <c r="C412" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D412" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="E412" t="s">
         <v>31</v>
       </c>
       <c r="F412" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G412" s="5">
-        <v>45624</v>
+        <v>1267</v>
+      </c>
+      <c r="G412" s="4">
+        <v>43301</v>
       </c>
       <c r="H412">
-        <v>658822336</v>
+        <v>617247324</v>
       </c>
       <c r="I412" t="s">
         <v>49</v>
@@ -19085,10 +19112,10 @@
         <v>1362</v>
       </c>
       <c r="K412">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11">
       <c r="A413">
         <v>412</v>
       </c>
@@ -19096,22 +19123,22 @@
         <v>1396</v>
       </c>
       <c r="C413" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="D413" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E413" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F413" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G413" s="4">
-        <v>35306</v>
+        <v>1270</v>
+      </c>
+      <c r="G413" s="5">
+        <v>45624</v>
       </c>
       <c r="H413">
-        <v>692649682</v>
+        <v>658822336</v>
       </c>
       <c r="I413" t="s">
         <v>49</v>
@@ -19123,7 +19150,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11">
       <c r="A414">
         <v>413</v>
       </c>
@@ -19131,22 +19158,22 @@
         <v>1396</v>
       </c>
       <c r="C414" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D414" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E414" t="s">
         <v>30</v>
       </c>
       <c r="F414" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="G414" s="4">
-        <v>32780</v>
+        <v>35306</v>
       </c>
       <c r="H414">
-        <v>617247324</v>
+        <v>692649682</v>
       </c>
       <c r="I414" t="s">
         <v>49</v>
@@ -19155,45 +19182,45 @@
         <v>1362</v>
       </c>
       <c r="K414">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11">
       <c r="A415">
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C415" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="D415" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E415" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F415" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G415" s="2" t="s">
-        <v>1279</v>
+        <v>1276</v>
+      </c>
+      <c r="G415" s="4">
+        <v>32780</v>
       </c>
       <c r="H415">
-        <v>605167020</v>
+        <v>617247324</v>
       </c>
       <c r="I415" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J415" t="s">
         <v>1362</v>
       </c>
       <c r="K415">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11">
       <c r="A416">
         <v>415</v>
       </c>
@@ -19201,22 +19228,22 @@
         <v>1397</v>
       </c>
       <c r="C416" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="D416" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="E416" t="s">
         <v>31</v>
       </c>
       <c r="F416" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G416" t="s">
-        <v>1283</v>
+        <v>1280</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>1279</v>
       </c>
       <c r="H416">
-        <v>688329806</v>
+        <v>605167020</v>
       </c>
       <c r="I416" t="s">
         <v>62</v>
@@ -19225,10 +19252,10 @@
         <v>1362</v>
       </c>
       <c r="K416">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11">
       <c r="A417">
         <v>416</v>
       </c>
@@ -19236,22 +19263,22 @@
         <v>1397</v>
       </c>
       <c r="C417" t="s">
-        <v>1355</v>
+        <v>1281</v>
       </c>
       <c r="D417" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="E417" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F417" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G417" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
+      </c>
+      <c r="G417" t="s">
+        <v>1283</v>
       </c>
       <c r="H417">
-        <v>638246213</v>
+        <v>688329806</v>
       </c>
       <c r="I417" t="s">
         <v>62</v>
@@ -19260,10 +19287,10 @@
         <v>1362</v>
       </c>
       <c r="K417">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11">
       <c r="A418">
         <v>417</v>
       </c>
@@ -19271,22 +19298,22 @@
         <v>1397</v>
       </c>
       <c r="C418" t="s">
-        <v>1288</v>
+        <v>1355</v>
       </c>
       <c r="D418" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="E418" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F418" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H418">
-        <v>691300193</v>
+        <v>638246213</v>
       </c>
       <c r="I418" t="s">
         <v>62</v>
@@ -19295,10 +19322,10 @@
         <v>1362</v>
       </c>
       <c r="K418">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
       <c r="A419">
         <v>418</v>
       </c>
@@ -19306,22 +19333,22 @@
         <v>1397</v>
       </c>
       <c r="C419" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D419" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="E419" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F419" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="H419">
-        <v>688003205</v>
+        <v>691300193</v>
       </c>
       <c r="I419" t="s">
         <v>62</v>
@@ -19330,10 +19357,10 @@
         <v>1362</v>
       </c>
       <c r="K419">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11">
       <c r="A420">
         <v>419</v>
       </c>
@@ -19341,22 +19368,22 @@
         <v>1397</v>
       </c>
       <c r="C420" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="D420" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="E420" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F420" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="H420">
-        <v>698292444</v>
+        <v>688003205</v>
       </c>
       <c r="I420" t="s">
         <v>62</v>
@@ -19368,39 +19395,42 @@
         <v>122</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11">
       <c r="A421">
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C421" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D421" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="E421" t="s">
         <v>31</v>
       </c>
       <c r="F421" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>1356</v>
+        <v>1298</v>
+      </c>
+      <c r="H421">
+        <v>698292444</v>
       </c>
       <c r="I421" t="s">
-        <v>1314</v>
+        <v>62</v>
       </c>
       <c r="J421" t="s">
         <v>1362</v>
       </c>
       <c r="K421">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11">
       <c r="A422">
         <v>421</v>
       </c>
@@ -19408,19 +19438,19 @@
         <v>1398</v>
       </c>
       <c r="C422" t="s">
-        <v>1357</v>
+        <v>1300</v>
       </c>
       <c r="D422" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E422" t="s">
         <v>31</v>
       </c>
       <c r="F422" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I422" t="s">
         <v>1314</v>
@@ -19432,7 +19462,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11">
       <c r="A423">
         <v>422</v>
       </c>
@@ -19440,62 +19470,94 @@
         <v>1398</v>
       </c>
       <c r="C423" t="s">
-        <v>1305</v>
+        <v>1357</v>
       </c>
       <c r="D423" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="E423" t="s">
         <v>31</v>
       </c>
       <c r="F423" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G423" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H423">
-        <v>36706395947</v>
+        <v>1304</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>1358</v>
       </c>
       <c r="I423" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="J423" t="s">
         <v>1362</v>
       </c>
       <c r="K423">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11">
       <c r="A424">
         <v>423</v>
       </c>
       <c r="B424" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E424" t="s">
+        <v>31</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G424" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H424">
+        <v>36706395947</v>
+      </c>
+      <c r="I424" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J424" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K424">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" t="s">
         <v>1399</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C425" t="s">
         <v>1400</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D425" t="s">
         <v>1404</v>
       </c>
-      <c r="E424" t="s">
+      <c r="E425" t="s">
         <v>1401</v>
       </c>
-      <c r="I424" t="s">
+      <c r="I425" t="s">
         <v>1403</v>
       </c>
-      <c r="J424" t="s">
+      <c r="J425" t="s">
         <v>1402</v>
       </c>
-      <c r="K424">
+      <c r="K425">
         <v>312</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F357 F359:F1048576 G358">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
